--- a/data/nzd0410/nzd0410.xlsx
+++ b/data/nzd0410/nzd0410.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W412"/>
+  <dimension ref="A1:W416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27892,6 +27892,292 @@
         </is>
       </c>
     </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:07:54+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>343.39</v>
+      </c>
+      <c r="C413" t="n">
+        <v>337.2</v>
+      </c>
+      <c r="D413" t="n">
+        <v>337.1</v>
+      </c>
+      <c r="E413" t="n">
+        <v>345.4976470588236</v>
+      </c>
+      <c r="F413" t="n">
+        <v>351.1876470588236</v>
+      </c>
+      <c r="G413" t="n">
+        <v>348.5157142857143</v>
+      </c>
+      <c r="H413" t="n">
+        <v>344.25</v>
+      </c>
+      <c r="I413" t="n">
+        <v>351.53</v>
+      </c>
+      <c r="J413" t="n">
+        <v>360.14</v>
+      </c>
+      <c r="K413" t="n">
+        <v>361.2863157894737</v>
+      </c>
+      <c r="L413" t="n">
+        <v>362.7604347826087</v>
+      </c>
+      <c r="M413" t="n">
+        <v>353.3855555555555</v>
+      </c>
+      <c r="N413" t="n">
+        <v>349.4804347826087</v>
+      </c>
+      <c r="O413" t="n">
+        <v>349.5241379310345</v>
+      </c>
+      <c r="P413" t="n">
+        <v>341.8315384615385</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>347.93</v>
+      </c>
+      <c r="R413" t="n">
+        <v>334.0141379310345</v>
+      </c>
+      <c r="S413" t="n">
+        <v>329.3055555555555</v>
+      </c>
+      <c r="T413" t="n">
+        <v>326</v>
+      </c>
+      <c r="U413" t="n">
+        <v>320.9404347826087</v>
+      </c>
+      <c r="V413" t="n">
+        <v>322.9604347826087</v>
+      </c>
+      <c r="W413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>347.5066666666667</v>
+      </c>
+      <c r="C414" t="n">
+        <v>341.6466666666667</v>
+      </c>
+      <c r="D414" t="n">
+        <v>344.7109090909091</v>
+      </c>
+      <c r="E414" t="n">
+        <v>353.5388235294118</v>
+      </c>
+      <c r="F414" t="n">
+        <v>361.4088235294118</v>
+      </c>
+      <c r="G414" t="n">
+        <v>355.9428571428572</v>
+      </c>
+      <c r="H414" t="n">
+        <v>361.77</v>
+      </c>
+      <c r="I414" t="n">
+        <v>361.8909090909091</v>
+      </c>
+      <c r="J414" t="n">
+        <v>364.67</v>
+      </c>
+      <c r="K414" t="n">
+        <v>365.56</v>
+      </c>
+      <c r="L414" t="n">
+        <v>363.3713043478261</v>
+      </c>
+      <c r="M414" t="n">
+        <v>359.3203703703704</v>
+      </c>
+      <c r="N414" t="n">
+        <v>357.2113043478261</v>
+      </c>
+      <c r="O414" t="n">
+        <v>357.4386206896552</v>
+      </c>
+      <c r="P414" t="n">
+        <v>350.1138461538461</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>346.25</v>
+      </c>
+      <c r="R414" t="n">
+        <v>342.0186206896552</v>
+      </c>
+      <c r="S414" t="n">
+        <v>325.0903703703704</v>
+      </c>
+      <c r="T414" t="n">
+        <v>317.8666666666667</v>
+      </c>
+      <c r="U414" t="n">
+        <v>317.7113043478261</v>
+      </c>
+      <c r="V414" t="n">
+        <v>326.7513043478261</v>
+      </c>
+      <c r="W414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:07:37+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr"/>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="inlineStr"/>
+      <c r="E415" t="inlineStr"/>
+      <c r="F415" t="n">
+        <v>331.1552941176471</v>
+      </c>
+      <c r="G415" t="n">
+        <v>340.4128571428571</v>
+      </c>
+      <c r="H415" t="n">
+        <v>340.88</v>
+      </c>
+      <c r="I415" t="n">
+        <v>354.2027272727273</v>
+      </c>
+      <c r="J415" t="n">
+        <v>366.56</v>
+      </c>
+      <c r="K415" t="n">
+        <v>373.0594736842105</v>
+      </c>
+      <c r="L415" t="n">
+        <v>365.6404347826087</v>
+      </c>
+      <c r="M415" t="n">
+        <v>358.7666666666667</v>
+      </c>
+      <c r="N415" t="n">
+        <v>360.3104347826087</v>
+      </c>
+      <c r="O415" t="n">
+        <v>358.2827586206897</v>
+      </c>
+      <c r="P415" t="n">
+        <v>361.6092307692308</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>365</v>
+      </c>
+      <c r="R415" t="n">
+        <v>356.2927586206897</v>
+      </c>
+      <c r="S415" t="n">
+        <v>343.2166666666667</v>
+      </c>
+      <c r="T415" t="inlineStr"/>
+      <c r="U415" t="inlineStr"/>
+      <c r="V415" t="inlineStr"/>
+      <c r="W415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>330.98</v>
+      </c>
+      <c r="C416" t="n">
+        <v>313.51</v>
+      </c>
+      <c r="D416" t="n">
+        <v>321.3818181818182</v>
+      </c>
+      <c r="E416" t="n">
+        <v>325.4688235294118</v>
+      </c>
+      <c r="F416" t="n">
+        <v>336.0888235294117</v>
+      </c>
+      <c r="G416" t="n">
+        <v>339.6</v>
+      </c>
+      <c r="H416" t="n">
+        <v>344.55</v>
+      </c>
+      <c r="I416" t="n">
+        <v>352.0918181818182</v>
+      </c>
+      <c r="J416" t="n">
+        <v>360.45</v>
+      </c>
+      <c r="K416" t="n">
+        <v>372.7989473684211</v>
+      </c>
+      <c r="L416" t="n">
+        <v>370.4078260869565</v>
+      </c>
+      <c r="M416" t="n">
+        <v>367.0688888888889</v>
+      </c>
+      <c r="N416" t="n">
+        <v>366.3278260869565</v>
+      </c>
+      <c r="O416" t="n">
+        <v>360.9034482758621</v>
+      </c>
+      <c r="P416" t="n">
+        <v>360.6292307692308</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>361.1</v>
+      </c>
+      <c r="R416" t="n">
+        <v>352.8334482758621</v>
+      </c>
+      <c r="S416" t="n">
+        <v>345.7788888888889</v>
+      </c>
+      <c r="T416" t="n">
+        <v>332.43</v>
+      </c>
+      <c r="U416" t="n">
+        <v>325.6378260869565</v>
+      </c>
+      <c r="V416" t="n">
+        <v>328.5978260869565</v>
+      </c>
+      <c r="W416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27903,7 +28189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B416"/>
+  <dimension ref="A1:B421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32071,6 +32357,56 @@
       </c>
       <c r="B416" t="n">
         <v>0.17</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -32233,28 +32569,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.578239487728694</v>
+        <v>-0.5446201691624261</v>
       </c>
       <c r="J2" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K2" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01202168387435476</v>
+        <v>0.01086699629957821</v>
       </c>
       <c r="M2" t="n">
-        <v>20.21191884465328</v>
+        <v>20.03760138279893</v>
       </c>
       <c r="N2" t="n">
-        <v>1539.163190219789</v>
+        <v>1526.700289316417</v>
       </c>
       <c r="O2" t="n">
-        <v>39.23217034806753</v>
+        <v>39.07301228874498</v>
       </c>
       <c r="P2" t="n">
-        <v>337.6061463393956</v>
+        <v>337.2866297359983</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -32310,28 +32646,28 @@
         <v>0.1644</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04140014929152526</v>
+        <v>0.04177389811274172</v>
       </c>
       <c r="J3" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K3" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001271119064434334</v>
+        <v>0.0001317356159898919</v>
       </c>
       <c r="M3" t="n">
-        <v>13.45834180311106</v>
+        <v>13.4392668445477</v>
       </c>
       <c r="N3" t="n">
-        <v>746.1113375153675</v>
+        <v>740.1370558071702</v>
       </c>
       <c r="O3" t="n">
-        <v>27.31503866948329</v>
+        <v>27.20546003667591</v>
       </c>
       <c r="P3" t="n">
-        <v>329.4563462449336</v>
+        <v>329.45360602013</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -32387,28 +32723,28 @@
         <v>0.1505</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003075853752039271</v>
+        <v>-0.0004664964597119202</v>
       </c>
       <c r="J4" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K4" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L4" t="n">
-        <v>2.19219202024501e-06</v>
+        <v>5.122468982321493e-08</v>
       </c>
       <c r="M4" t="n">
-        <v>11.57460946534965</v>
+        <v>11.54208574127493</v>
       </c>
       <c r="N4" t="n">
-        <v>231.0474343366482</v>
+        <v>229.7301486903432</v>
       </c>
       <c r="O4" t="n">
-        <v>15.2002445485804</v>
+        <v>15.15685154279553</v>
       </c>
       <c r="P4" t="n">
-        <v>336.1365450822223</v>
+        <v>336.1715973866932</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -32464,28 +32800,28 @@
         <v>0.1087</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01704816144352077</v>
+        <v>-0.01717356593954606</v>
       </c>
       <c r="J5" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K5" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L5" t="n">
-        <v>5.722958022902347e-05</v>
+        <v>5.888320671720848e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>12.65582286910947</v>
+        <v>12.63745002396513</v>
       </c>
       <c r="N5" t="n">
-        <v>279.4774977824018</v>
+        <v>278.1631305795423</v>
       </c>
       <c r="O5" t="n">
-        <v>16.71758050025188</v>
+        <v>16.67822324408515</v>
       </c>
       <c r="P5" t="n">
-        <v>341.9314666291391</v>
+        <v>341.9333541590375</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -32541,28 +32877,28 @@
         <v>0.1075</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07938563167053946</v>
+        <v>-0.0813606007143146</v>
       </c>
       <c r="J6" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K6" t="n">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001293544969688809</v>
+        <v>0.001382325860675104</v>
       </c>
       <c r="M6" t="n">
-        <v>12.454582576484</v>
+        <v>12.44208471606518</v>
       </c>
       <c r="N6" t="n">
-        <v>269.7909016488341</v>
+        <v>268.2663194632267</v>
       </c>
       <c r="O6" t="n">
-        <v>16.42531283260182</v>
+        <v>16.37883754920436</v>
       </c>
       <c r="P6" t="n">
-        <v>347.773968199963</v>
+        <v>347.7937036761946</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -32618,28 +32954,28 @@
         <v>0.0833</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1297415535100727</v>
+        <v>-0.1309477755455428</v>
       </c>
       <c r="J7" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K7" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003660255763381026</v>
+        <v>0.003805477886138942</v>
       </c>
       <c r="M7" t="n">
-        <v>12.16131688731155</v>
+        <v>12.09205758099214</v>
       </c>
       <c r="N7" t="n">
-        <v>247.066637457026</v>
+        <v>244.7313903651661</v>
       </c>
       <c r="O7" t="n">
-        <v>15.71835352245985</v>
+        <v>15.6438930693471</v>
       </c>
       <c r="P7" t="n">
-        <v>349.9225180983873</v>
+        <v>349.9347433611748</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -32695,28 +33031,28 @@
         <v>0.1317</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02216057479087007</v>
+        <v>-0.02380791506021979</v>
       </c>
       <c r="J8" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K8" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001231001684263155</v>
+        <v>0.0001448196919880962</v>
       </c>
       <c r="M8" t="n">
-        <v>11.33756796236888</v>
+        <v>11.29200485389451</v>
       </c>
       <c r="N8" t="n">
-        <v>216.0671245955483</v>
+        <v>214.3739823858182</v>
       </c>
       <c r="O8" t="n">
-        <v>14.6992219044257</v>
+        <v>14.6415157134027</v>
       </c>
       <c r="P8" t="n">
-        <v>349.1669150868451</v>
+        <v>349.1831636260271</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -32772,28 +33108,28 @@
         <v>0.1392</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06119316743591514</v>
+        <v>0.06317498575136282</v>
       </c>
       <c r="J9" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K9" t="n">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0009987375579064706</v>
+        <v>0.001088731095302609</v>
       </c>
       <c r="M9" t="n">
-        <v>11.055442027145</v>
+        <v>10.96159992441738</v>
       </c>
       <c r="N9" t="n">
-        <v>204.5957153619125</v>
+        <v>202.3932895372531</v>
       </c>
       <c r="O9" t="n">
-        <v>14.30369586372391</v>
+        <v>14.22649955320187</v>
       </c>
       <c r="P9" t="n">
-        <v>352.479609493724</v>
+        <v>352.4606542325218</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -32849,28 +33185,28 @@
         <v>0.1267</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02942598320188211</v>
+        <v>0.03576400527285601</v>
       </c>
       <c r="J10" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K10" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000232477483569804</v>
+        <v>0.0003514670140098985</v>
       </c>
       <c r="M10" t="n">
-        <v>10.80968754188076</v>
+        <v>10.71305503901924</v>
       </c>
       <c r="N10" t="n">
-        <v>201.0448465985517</v>
+        <v>198.8774756694015</v>
       </c>
       <c r="O10" t="n">
-        <v>14.17902840812979</v>
+        <v>14.10239255124468</v>
       </c>
       <c r="P10" t="n">
-        <v>359.3915621843637</v>
+        <v>359.3306292665054</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -32926,28 +33262,28 @@
         <v>0.1147</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007918175221057859</v>
+        <v>0.004677981489478329</v>
       </c>
       <c r="J11" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K11" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L11" t="n">
-        <v>2.087044632392843e-05</v>
+        <v>7.445398678251891e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>10.09392296028021</v>
+        <v>10.03368362292508</v>
       </c>
       <c r="N11" t="n">
-        <v>162.693331911473</v>
+        <v>161.1065170459922</v>
       </c>
       <c r="O11" t="n">
-        <v>12.75512963130806</v>
+        <v>12.69277420605882</v>
       </c>
       <c r="P11" t="n">
-        <v>369.4651993868194</v>
+        <v>369.4960183186469</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -33003,28 +33339,28 @@
         <v>0.1465</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.04850878640241032</v>
+        <v>-0.0494917524040643</v>
       </c>
       <c r="J12" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K12" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0008430893858311084</v>
+        <v>0.0008973788859026888</v>
       </c>
       <c r="M12" t="n">
-        <v>9.834759064214987</v>
+        <v>9.75255409634663</v>
       </c>
       <c r="N12" t="n">
-        <v>150.94807552684</v>
+        <v>149.3148558448088</v>
       </c>
       <c r="O12" t="n">
-        <v>12.2860927689335</v>
+        <v>12.21944580759737</v>
       </c>
       <c r="P12" t="n">
-        <v>367.2435380013049</v>
+        <v>367.252845883369</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -33080,28 +33416,28 @@
         <v>0.1773</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1163753375279049</v>
+        <v>-0.1163013952279731</v>
       </c>
       <c r="J13" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K13" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004872115831591195</v>
+        <v>0.004968506622497149</v>
       </c>
       <c r="M13" t="n">
-        <v>9.607818085774779</v>
+        <v>9.541443549789221</v>
       </c>
       <c r="N13" t="n">
-        <v>147.7780841380136</v>
+        <v>146.3818255768739</v>
       </c>
       <c r="O13" t="n">
-        <v>12.15640095332552</v>
+        <v>12.09883571162424</v>
       </c>
       <c r="P13" t="n">
-        <v>362.576291020745</v>
+        <v>362.5752538118404</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -33157,28 +33493,28 @@
         <v>0.145</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2331259921251737</v>
+        <v>-0.2281733613656867</v>
       </c>
       <c r="J14" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K14" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01851130560116732</v>
+        <v>0.01810127563359898</v>
       </c>
       <c r="M14" t="n">
-        <v>9.997053864895253</v>
+        <v>9.944662663235361</v>
       </c>
       <c r="N14" t="n">
-        <v>157.0008931890069</v>
+        <v>155.6777250203554</v>
       </c>
       <c r="O14" t="n">
-        <v>12.52999972821256</v>
+        <v>12.47708800242891</v>
       </c>
       <c r="P14" t="n">
-        <v>361.9995273959612</v>
+        <v>361.9514814781424</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -33234,28 +33570,28 @@
         <v>0.1908</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2033500737984618</v>
+        <v>-0.2047767376564276</v>
       </c>
       <c r="J15" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K15" t="n">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01489594437009334</v>
+        <v>0.01543172005830395</v>
       </c>
       <c r="M15" t="n">
-        <v>10.01224703528119</v>
+        <v>9.933279149348706</v>
       </c>
       <c r="N15" t="n">
-        <v>150.7204962727387</v>
+        <v>149.1840144814893</v>
       </c>
       <c r="O15" t="n">
-        <v>12.27682761436108</v>
+        <v>12.21409081681847</v>
       </c>
       <c r="P15" t="n">
-        <v>362.3670250125314</v>
+        <v>362.3803293285392</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -33311,28 +33647,28 @@
         <v>0.1737</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.227110974451276</v>
+        <v>-0.2395671805496051</v>
       </c>
       <c r="J16" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K16" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01721726231276277</v>
+        <v>0.01942833979411152</v>
       </c>
       <c r="M16" t="n">
-        <v>10.38820873611068</v>
+        <v>10.35741721885724</v>
       </c>
       <c r="N16" t="n">
-        <v>163.8802277352676</v>
+        <v>163.0907198062416</v>
       </c>
       <c r="O16" t="n">
-        <v>12.80157129946428</v>
+        <v>12.77069770240615</v>
       </c>
       <c r="P16" t="n">
-        <v>365.0042234467397</v>
+        <v>365.1220613983891</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -33388,28 +33724,28 @@
         <v>0.1799</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.2171492343392432</v>
+        <v>-0.2339437502404129</v>
       </c>
       <c r="J17" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K17" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01332980219728641</v>
+        <v>0.01568686406471298</v>
       </c>
       <c r="M17" t="n">
-        <v>11.13967998955211</v>
+        <v>11.10835840304866</v>
       </c>
       <c r="N17" t="n">
-        <v>195.7205099725061</v>
+        <v>194.7439248673053</v>
       </c>
       <c r="O17" t="n">
-        <v>13.9900146523335</v>
+        <v>13.95506807103804</v>
       </c>
       <c r="P17" t="n">
-        <v>367.95814040125</v>
+        <v>368.117916012072</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -33465,28 +33801,28 @@
         <v>0.2</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1786547305375484</v>
+        <v>-0.2002897280241321</v>
       </c>
       <c r="J18" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K18" t="n">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006077969751939527</v>
+        <v>0.007740047241484471</v>
       </c>
       <c r="M18" t="n">
-        <v>13.169416883887</v>
+        <v>13.12558562843155</v>
       </c>
       <c r="N18" t="n">
-        <v>285.8571469572418</v>
+        <v>284.5842517592891</v>
       </c>
       <c r="O18" t="n">
-        <v>16.90731045900683</v>
+        <v>16.86962512207337</v>
       </c>
       <c r="P18" t="n">
-        <v>360.9580105395419</v>
+        <v>361.1682074527163</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -33542,28 +33878,28 @@
         <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.07963173393767609</v>
+        <v>-0.1045670195952184</v>
       </c>
       <c r="J19" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K19" t="n">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0008877229109993667</v>
+        <v>0.001553607355890496</v>
       </c>
       <c r="M19" t="n">
-        <v>15.28907735178212</v>
+        <v>15.25075412751875</v>
       </c>
       <c r="N19" t="n">
-        <v>382.6723649429631</v>
+        <v>380.6634949668957</v>
       </c>
       <c r="O19" t="n">
-        <v>19.56201331517191</v>
+        <v>19.51059955426526</v>
       </c>
       <c r="P19" t="n">
-        <v>349.5450761702497</v>
+        <v>349.7914747390115</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -33619,28 +33955,28 @@
         <v>0.1783</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.02586715884320115</v>
+        <v>-0.05274611877174069</v>
       </c>
       <c r="J20" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K20" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L20" t="n">
-        <v>8.927144972681322e-05</v>
+        <v>0.000375394054796252</v>
       </c>
       <c r="M20" t="n">
-        <v>16.1745918475224</v>
+        <v>16.18017363327787</v>
       </c>
       <c r="N20" t="n">
-        <v>415.2355936982164</v>
+        <v>414.0297083726219</v>
       </c>
       <c r="O20" t="n">
-        <v>20.37733038693284</v>
+        <v>20.34771997970834</v>
       </c>
       <c r="P20" t="n">
-        <v>342.0307895600135</v>
+        <v>342.2873562133198</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -33696,28 +34032,28 @@
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.06357029106789666</v>
+        <v>-0.09910436561434771</v>
       </c>
       <c r="J21" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K21" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0005368535416702125</v>
+        <v>0.001315317746891753</v>
       </c>
       <c r="M21" t="n">
-        <v>16.71707469231395</v>
+        <v>16.76723068320552</v>
       </c>
       <c r="N21" t="n">
-        <v>423.9977745061595</v>
+        <v>424.0418187660104</v>
       </c>
       <c r="O21" t="n">
-        <v>20.59120624213549</v>
+        <v>20.59227570634218</v>
       </c>
       <c r="P21" t="n">
-        <v>343.7706129965805</v>
+        <v>344.1046071845233</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -33767,28 +34103,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.04907040613555433</v>
+        <v>0.01455294737712833</v>
       </c>
       <c r="J22" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K22" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0006033355858268141</v>
+        <v>5.318090555606059e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>12.29478100399093</v>
+        <v>12.36990504174317</v>
       </c>
       <c r="N22" t="n">
-        <v>219.938357013085</v>
+        <v>221.5837307058177</v>
       </c>
       <c r="O22" t="n">
-        <v>14.8303188439455</v>
+        <v>14.88568878842419</v>
       </c>
       <c r="P22" t="n">
-        <v>344.9934359121831</v>
+        <v>345.3224556593561</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -33825,7 +34161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W412"/>
+  <dimension ref="A1:W416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75065,6 +75401,446 @@
         </is>
       </c>
     </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:07:54+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>-42.88636687634292,173.3134515058386</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-42.88662894790603,173.31262384485535</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>-42.88693926876529,173.31183163127497</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-42.887316907125054,173.311088404818</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>-42.88771208747269,173.3103727154172</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>-42.888089790318325,173.30963914004045</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>-42.88845728224651,173.3088919682792</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>-42.88890738804421,173.30823064042292</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>-42.8893670087003,173.30757920128607</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>-42.88976329403925,173.3068868750505</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>-42.89025520136076,173.30634228792303</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>-42.8907323721347,173.30572276972634</t>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>-42.8912427152803,173.30515341460222</t>
+        </is>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>-42.89177397513928,173.30462316479208</t>
+        </is>
+      </c>
+      <c r="P413" t="inlineStr">
+        <is>
+          <t>-42.89226424194478,173.30401630097694</t>
+        </is>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>-42.89282669421073,173.30354629355304</t>
+        </is>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>-42.89334360966057,173.3029637917788</t>
+        </is>
+      </c>
+      <c r="S413" t="inlineStr">
+        <is>
+          <t>-42.893929290330554,173.3025373071519</t>
+        </is>
+      </c>
+      <c r="T413" t="inlineStr">
+        <is>
+          <t>-42.894516363396384,173.3021291760224</t>
+        </is>
+      </c>
+      <c r="U413" t="inlineStr">
+        <is>
+          <t>-42.89510674974348,173.30169553948417</t>
+        </is>
+      </c>
+      <c r="V413" t="inlineStr">
+        <is>
+          <t>-42.895743901064286,173.30142058282027</t>
+        </is>
+      </c>
+      <c r="W413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>-42.88639949255159,173.31347546730032</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>-42.88666417882129,173.31264972690323</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>-42.88699957015684,173.3118759306796</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>-42.887379263377575,173.3111384680801</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>-42.887787424664516,173.31044462852955</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>-42.88814293562558,173.30969436195664</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>-42.88858264805312,173.30902223198973</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>-42.888981526685924,173.30830767525623</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>-42.889399423748245,173.30761288249164</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>-42.88979114676722,173.3069229934489</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>-42.890258591243914,173.30634817986572</t>
+        </is>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>-42.89076381537961,173.30578154240598</t>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>-42.891283674458485,173.30522997405976</t>
+        </is>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>-42.89181590736399,173.30470154302245</t>
+        </is>
+      </c>
+      <c r="P414" t="inlineStr">
+        <is>
+          <t>-42.8923081232715,173.304098322178</t>
+        </is>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>-42.89281860358729,173.30352890750473</t>
+        </is>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>-42.89337567962213,173.30305158890886</t>
+        </is>
+      </c>
+      <c r="S414" t="inlineStr">
+        <is>
+          <t>-42.89391370276987,173.3024902351672</t>
+        </is>
+      </c>
+      <c r="T414" t="inlineStr">
+        <is>
+          <t>-42.89448628646371,173.30203834843286</t>
+        </is>
+      </c>
+      <c r="U414" t="inlineStr">
+        <is>
+          <t>-42.89509605518835,173.30165876169366</t>
+        </is>
+      </c>
+      <c r="V414" t="inlineStr">
+        <is>
+          <t>-42.89575496345837,173.30146450758488</t>
+        </is>
+      </c>
+      <c r="W414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:07:37+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr"/>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="inlineStr"/>
+      <c r="E415" t="inlineStr"/>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>-42.88756443493924,173.31023177433724</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>-42.88803180987105,173.3095788941959</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>-42.88843316791576,173.30886691190685</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>-42.88892651304771,173.30825051251279</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>-42.8894129479043,173.3076269349256</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>-42.88984002278845,173.30698637419982</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>-42.89027118326985,173.30637006602723</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>-42.890760881803075,173.30577605905623</t>
+        </is>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>-42.89130009405037,173.30526066503992</t>
+        </is>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>-42.891820379741674,173.30470990264476</t>
+        </is>
+      </c>
+      <c r="P415" t="inlineStr">
+        <is>
+          <t>-42.89236902802546,173.30421216325723</t>
+        </is>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>-42.8929089005729,173.3037229484796</t>
+        </is>
+      </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>-42.89343286879001,173.3032081549461</t>
+        </is>
+      </c>
+      <c r="S415" t="inlineStr">
+        <is>
+          <t>-42.893980732840625,173.30269265603633</t>
+        </is>
+      </c>
+      <c r="T415" t="inlineStr"/>
+      <c r="U415" t="inlineStr"/>
+      <c r="V415" t="inlineStr"/>
+      <c r="W415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>-42.88626855230704,173.31337927237087</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>-42.886441252063946,173.31248595651195</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>-42.886814733225634,173.311740143648</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>-42.88716159114827,173.31096370854863</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>-42.887600798538266,173.31026648497325</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>-42.888025993424534,173.30957285049877</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>-42.88845942892257,173.30889419881774</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>-42.888911408198304,173.3082348176163</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>-42.889369226948936,173.30758150617982</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>-42.889838324871256,173.30698417239648</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>-42.89029763881541,173.30641604838246</t>
+        </is>
+      </c>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>-42.890804867762945,173.3058582763469</t>
+        </is>
+      </c>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>-42.89133197494017,173.3053202558784</t>
+        </is>
+      </c>
+      <c r="O416" t="inlineStr">
+        <is>
+          <t>-42.891834264570406,173.3047358557283</t>
+        </is>
+      </c>
+      <c r="P416" t="inlineStr">
+        <is>
+          <t>-42.89236383580184,173.3042024581137</t>
+        </is>
+      </c>
+      <c r="Q416" t="inlineStr">
+        <is>
+          <t>-42.89289011882724,173.3036825879103</t>
+        </is>
+      </c>
+      <c r="R416" t="inlineStr">
+        <is>
+          <t>-42.89341900912307,173.30317021143648</t>
+        </is>
+      </c>
+      <c r="S416" t="inlineStr">
+        <is>
+          <t>-42.89399020777182,173.3027212690458</t>
+        </is>
+      </c>
+      <c r="T416" t="inlineStr">
+        <is>
+          <t>-42.89454014137916,173.30220098199456</t>
+        </is>
+      </c>
+      <c r="U416" t="inlineStr">
+        <is>
+          <t>-42.8951223070097,173.30174903987685</t>
+        </is>
+      </c>
+      <c r="V416" t="inlineStr">
+        <is>
+          <t>-42.89576035191279,173.30148590321795</t>
+        </is>
+      </c>
+      <c r="W416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0410/nzd0410.xlsx
+++ b/data/nzd0410/nzd0410.xlsx
@@ -32420,7 +32420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32511,35 +32511,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -32592,27 +32597,28 @@
       <c r="P2" t="n">
         <v>337.2866297359983</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.3114528598335 -42.88364619056931, 173.3166484632999 -42.89071820599486)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.3114528598335</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-42.88364619056931</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.3166484632999</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-42.89071820599486</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.3140506615667</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-42.88718219828208</v>
       </c>
     </row>
@@ -32669,27 +32675,28 @@
       <c r="P3" t="n">
         <v>329.45360602013</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.3106612412807 -42.883957296232616, 173.31585680183977 -42.89102932401754)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.3106612412807</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-42.88395729623262</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.3158568018398</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-42.89102932401754</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.3132590215602</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-42.88749331012508</v>
       </c>
     </row>
@@ -32746,27 +32753,28 @@
       <c r="P4" t="n">
         <v>336.1715973866932</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.30986962272848 -42.884268400327144, 173.31506514037855 -42.89134044047071)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.3098696227285</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-42.88426840032714</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.3150651403786</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-42.89134044047071</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.3124673815535</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-42.88780442039892</v>
       </c>
     </row>
@@ -32823,27 +32831,28 @@
       <c r="P5" t="n">
         <v>341.9333541590375</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.3089374793213 -42.884637683201625, 173.31449500950723 -42.89155966120081)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.3089374793213</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-42.88463768320162</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.3144950095072</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-42.89155966120081</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.3117162444142</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-42.88809867220122</v>
       </c>
     </row>
@@ -32900,27 +32909,28 @@
       <c r="P6" t="n">
         <v>347.7937036761946</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.30790197161994 -42.88512356146184, 173.31418290548203 -42.89170337915059)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.3079019716199</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-42.88512356146184</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.314182905482</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-42.89170337915059</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.311042438551</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-42.88841347030622</v>
       </c>
     </row>
@@ -32977,27 +32987,28 @@
       <c r="P7" t="n">
         <v>349.9347433611748</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.3070479803938 -42.88559593714815, 173.31368580457377 -42.891983966282496)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.3070479803938</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-42.88559593714815</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.3136858045738</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-42.8919839662825</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.3103668924838</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-42.88878995171532</v>
       </c>
     </row>
@@ -33054,27 +33065,28 @@
       <c r="P8" t="n">
         <v>349.1831636260271</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.30633252735169 -42.88599394198829, 173.31297033096567 -42.89238198526247)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.3063325273517</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-42.88599394198829</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.3129703309657</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-42.89238198526247</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.3096514291587</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-42.88918796362537</v>
       </c>
     </row>
@@ -33131,27 +33143,28 @@
       <c r="P9" t="n">
         <v>352.4606542325218</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.30561707431002 -42.88639194426041, 173.31225485735658 -42.89278000167408)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.30561707431</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-42.88639194426041</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.3122548573566</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-42.89278000167408</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.3089359658333</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-42.88958597296725</v>
       </c>
     </row>
@@ -33208,27 +33221,28 @@
       <c r="P10" t="n">
         <v>359.3306292665054</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.30490162126898 -42.88678994396446, 173.31153938374626 -42.89317801551742)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.304901621269</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-42.88678994396446</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.3115393837463</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-42.89317801551742</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.3082205025076</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-42.88998397974094</v>
       </c>
     </row>
@@ -33285,27 +33299,28 @@
       <c r="P11" t="n">
         <v>369.4960183186469</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.30383363570246 -42.887408653712484, 173.3113795508335 -42.89322754244492)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.3038336357025</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-42.88740865371248</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.3113795508335</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-42.89322754244492</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.307606593268</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-42.8903180980787</v>
       </c>
     </row>
@@ -33362,27 +33377,28 @@
       <c r="P12" t="n">
         <v>367.252845883369</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.30284351458906 -42.888242089714254, 173.3114567786478 -42.89319752841849)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.3028435145891</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-42.88824208971425</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.3114567786478</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-42.89319752841849</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.3071501466184</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-42.89071980906637</v>
       </c>
     </row>
@@ -33439,27 +33455,28 @@
       <c r="P13" t="n">
         <v>362.5752538118404</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.30222328763242 -42.88886004494312, 173.31106715744167 -42.89359135168127)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.3022232876324</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-42.88886004494312</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.3110671574417</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-42.89359135168127</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.306645222537</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-42.8912256983122</v>
       </c>
     </row>
@@ -33516,27 +33533,28 @@
       <c r="P14" t="n">
         <v>361.9514814781424</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (173.30169258586352 -42.8893910672183, 173.31053647975838 -42.894122387752674)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>173.3016925858635</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-42.8893910672183</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>173.3105364797584</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-42.89412238775267</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>173.306114532811</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-42.89175672748549</v>
       </c>
     </row>
@@ -33593,27 +33611,28 @@
       <c r="P15" t="n">
         <v>362.3803293285392</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (173.3011618840948 -42.88992208492149, 173.31000580207484 -42.8946534192522)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>173.3011618840948</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-42.88992208492149</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>173.3100058020748</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-42.8946534192522</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>173.3055838430848</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-42.89228775208684</v>
       </c>
     </row>
@@ -33670,27 +33689,28 @@
       <c r="P16" t="n">
         <v>365.1220613983891</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (173.30063118232636 -42.89045309805251, 173.30947512439076 -42.89518444617996)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>173.3006311823264</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-42.89045309805251</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>173.3094751243908</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-42.89518444617996</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>173.3050531533586</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-42.89281877211624</v>
       </c>
     </row>
@@ -33747,27 +33767,28 @@
       <c r="P17" t="n">
         <v>368.117916012072</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (173.29994571906258 -42.89115105957284, 173.30918826749772 -42.895451942905666)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>173.2999457190626</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-42.89115105957284</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>173.3091882674977</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-42.89545194290567</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>173.3045669932802</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-42.89330150123925</v>
       </c>
     </row>
@@ -33824,27 +33845,28 @@
       <c r="P18" t="n">
         <v>361.1682074527163</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (173.29930024019208 -42.89200532152747, 173.30909718411957 -42.895583732388324)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>173.2993002401921</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-42.89200532152747</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>173.3090971841196</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-42.89558373238832</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>173.3041987121558</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-42.8937945269579</v>
       </c>
     </row>
@@ -33901,27 +33923,28 @@
       <c r="P19" t="n">
         <v>349.7914747390115</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (173.2988599441372 -42.892711474901056, 173.30883472252611 -42.89601438962734)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>173.2988599441372</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-42.89271147490106</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>173.3088347225261</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-42.89601438962734</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>173.3038473333316</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-42.8943629322642</v>
       </c>
     </row>
@@ -33978,27 +34001,28 @@
       <c r="P20" t="n">
         <v>342.2873562133198</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (173.29848869644565 -42.893310763994, 173.30846352669818 -42.89661368949057)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>173.2984886964456</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-42.893310763994</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>173.3084635266982</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-42.89661368949057</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>173.3034761115719</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-42.89496222674229</v>
       </c>
     </row>
@@ -34055,27 +34079,28 @@
       <c r="P21" t="n">
         <v>344.1046071845233</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (173.29804028909348 -42.894043769259, 173.3082138180924 -42.89700194395011)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>173.2980402890935</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-42.894043769259</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>173.3082138180924</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-42.89700194395011</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>173.303127053593</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-42.89552285660456</v>
       </c>
     </row>
@@ -34126,27 +34151,28 @@
       <c r="P22" t="n">
         <v>345.3224556593561</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (173.29767850110528 -42.894801386144245, 173.30802886065587 -42.897407952678854)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>173.2976785011053</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-42.89480138614424</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>173.3080288606559</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-42.89740795267885</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>173.3028536808806</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-42.89610466941155</v>
       </c>
     </row>

--- a/data/nzd0410/nzd0410.xlsx
+++ b/data/nzd0410/nzd0410.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W416"/>
+  <dimension ref="A1:W419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28178,6 +28178,231 @@
         </is>
       </c>
     </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>319.6733333333333</v>
+      </c>
+      <c r="C417" t="n">
+        <v>310.7533333333333</v>
+      </c>
+      <c r="D417" t="n">
+        <v>311.7072727272728</v>
+      </c>
+      <c r="E417" t="n">
+        <v>318.9229411764706</v>
+      </c>
+      <c r="F417" t="n">
+        <v>325.4529411764706</v>
+      </c>
+      <c r="G417" t="n">
+        <v>328.36</v>
+      </c>
+      <c r="H417" t="n">
+        <v>329.48</v>
+      </c>
+      <c r="I417" t="n">
+        <v>336.1072727272727</v>
+      </c>
+      <c r="J417" t="n">
+        <v>353.64</v>
+      </c>
+      <c r="K417" t="n">
+        <v>364.1063157894737</v>
+      </c>
+      <c r="L417" t="n">
+        <v>362.3726086956522</v>
+      </c>
+      <c r="M417" t="n">
+        <v>355.242962962963</v>
+      </c>
+      <c r="N417" t="n">
+        <v>351.6926086956522</v>
+      </c>
+      <c r="O417" t="n">
+        <v>360.3344827586207</v>
+      </c>
+      <c r="P417" t="n">
+        <v>365.4330769230769</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>372.35</v>
+      </c>
+      <c r="R417" t="n">
+        <v>371.5144827586207</v>
+      </c>
+      <c r="S417" t="n">
+        <v>359.412962962963</v>
+      </c>
+      <c r="T417" t="n">
+        <v>357.0033333333333</v>
+      </c>
+      <c r="U417" t="n">
+        <v>357.5626086956522</v>
+      </c>
+      <c r="V417" t="n">
+        <v>361.7926086956522</v>
+      </c>
+      <c r="W417" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:07:30+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>320.9133333333333</v>
+      </c>
+      <c r="C418" t="n">
+        <v>315.4233333333333</v>
+      </c>
+      <c r="D418" t="n">
+        <v>316.7890909090909</v>
+      </c>
+      <c r="E418" t="n">
+        <v>319.5488235294118</v>
+      </c>
+      <c r="F418" t="n">
+        <v>319.1088235294118</v>
+      </c>
+      <c r="G418" t="n">
+        <v>324.2828571428572</v>
+      </c>
+      <c r="H418" t="n">
+        <v>329.3</v>
+      </c>
+      <c r="I418" t="n">
+        <v>339.3390909090909</v>
+      </c>
+      <c r="J418" t="n">
+        <v>352.82</v>
+      </c>
+      <c r="K418" t="n">
+        <v>365.1263157894737</v>
+      </c>
+      <c r="L418" t="n">
+        <v>359.0491304347826</v>
+      </c>
+      <c r="M418" t="n">
+        <v>359.4251851851852</v>
+      </c>
+      <c r="N418" t="n">
+        <v>360.5091304347826</v>
+      </c>
+      <c r="O418" t="n">
+        <v>365.0555172413793</v>
+      </c>
+      <c r="P418" t="n">
+        <v>361.5576923076923</v>
+      </c>
+      <c r="Q418" t="n">
+        <v>372.71</v>
+      </c>
+      <c r="R418" t="n">
+        <v>360.3855172413793</v>
+      </c>
+      <c r="S418" t="n">
+        <v>352.8051851851852</v>
+      </c>
+      <c r="T418" t="n">
+        <v>353.2533333333333</v>
+      </c>
+      <c r="U418" t="n">
+        <v>348.5091304347826</v>
+      </c>
+      <c r="V418" t="n">
+        <v>347.8991304347826</v>
+      </c>
+      <c r="W418" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>325.3966666666667</v>
+      </c>
+      <c r="C419" t="n">
+        <v>319.5466666666667</v>
+      </c>
+      <c r="D419" t="n">
+        <v>324.9845454545454</v>
+      </c>
+      <c r="E419" t="n">
+        <v>328.1335294117647</v>
+      </c>
+      <c r="F419" t="n">
+        <v>326.5835294117647</v>
+      </c>
+      <c r="G419" t="n">
+        <v>326.1857142857143</v>
+      </c>
+      <c r="H419" t="n">
+        <v>336.21</v>
+      </c>
+      <c r="I419" t="n">
+        <v>348.1545454545454</v>
+      </c>
+      <c r="J419" t="n">
+        <v>359.37</v>
+      </c>
+      <c r="K419" t="n">
+        <v>368.698947368421</v>
+      </c>
+      <c r="L419" t="n">
+        <v>369.0756521739131</v>
+      </c>
+      <c r="M419" t="n">
+        <v>366.5214814814815</v>
+      </c>
+      <c r="N419" t="n">
+        <v>363.6956521739131</v>
+      </c>
+      <c r="O419" t="n">
+        <v>360.0131034482759</v>
+      </c>
+      <c r="P419" t="n">
+        <v>360.8376923076923</v>
+      </c>
+      <c r="Q419" t="n">
+        <v>364.05</v>
+      </c>
+      <c r="R419" t="n">
+        <v>361.5231034482759</v>
+      </c>
+      <c r="S419" t="n">
+        <v>355.9514814814815</v>
+      </c>
+      <c r="T419" t="n">
+        <v>350.0366666666667</v>
+      </c>
+      <c r="U419" t="n">
+        <v>349.7956521739131</v>
+      </c>
+      <c r="V419" t="n">
+        <v>358.7956521739131</v>
+      </c>
+      <c r="W419" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28189,7 +28414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B421"/>
+  <dimension ref="A1:B424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32407,6 +32632,36 @@
       </c>
       <c r="B421" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -32574,28 +32829,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.5446201691624261</v>
+        <v>-0.5472170149595418</v>
       </c>
       <c r="J2" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K2" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01086699629957821</v>
+        <v>0.01118979719641156</v>
       </c>
       <c r="M2" t="n">
-        <v>20.03760138279893</v>
+        <v>19.86905922631915</v>
       </c>
       <c r="N2" t="n">
-        <v>1526.700289316417</v>
+        <v>1510.935626893919</v>
       </c>
       <c r="O2" t="n">
-        <v>39.07301228874498</v>
+        <v>38.87075541964575</v>
       </c>
       <c r="P2" t="n">
-        <v>337.2866297359983</v>
+        <v>337.3115363600793</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32652,28 +32907,28 @@
         <v>0.1644</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04177389811274172</v>
+        <v>0.01343059094113698</v>
       </c>
       <c r="J3" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K3" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001317356159898919</v>
+        <v>1.38476543436461e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>13.4392668445477</v>
+        <v>13.48109266961026</v>
       </c>
       <c r="N3" t="n">
-        <v>740.1370558071702</v>
+        <v>735.1470209070633</v>
       </c>
       <c r="O3" t="n">
-        <v>27.20546003667591</v>
+        <v>27.11359476179917</v>
       </c>
       <c r="P3" t="n">
-        <v>329.45360602013</v>
+        <v>329.7270937552582</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32730,28 +32985,28 @@
         <v>0.1505</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0004664964597119202</v>
+        <v>-0.03477670977800994</v>
       </c>
       <c r="J4" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K4" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L4" t="n">
-        <v>5.122468982321493e-08</v>
+        <v>0.0002859845342593204</v>
       </c>
       <c r="M4" t="n">
-        <v>11.54208574127493</v>
+        <v>11.62656391525707</v>
       </c>
       <c r="N4" t="n">
-        <v>229.7301486903432</v>
+        <v>230.9654522433959</v>
       </c>
       <c r="O4" t="n">
-        <v>15.15685154279553</v>
+        <v>15.19754757332235</v>
       </c>
       <c r="P4" t="n">
-        <v>336.1715973866932</v>
+        <v>336.5091602737087</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32808,28 +33063,28 @@
         <v>0.1087</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01717356593954606</v>
+        <v>-0.05075351105534831</v>
       </c>
       <c r="J5" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K5" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L5" t="n">
-        <v>5.888320671720848e-05</v>
+        <v>0.0005171173499440851</v>
       </c>
       <c r="M5" t="n">
-        <v>12.63745002396513</v>
+        <v>12.73316150357874</v>
       </c>
       <c r="N5" t="n">
-        <v>278.1631305795423</v>
+        <v>279.1054713663685</v>
       </c>
       <c r="O5" t="n">
-        <v>16.67822324408515</v>
+        <v>16.70644999293292</v>
       </c>
       <c r="P5" t="n">
-        <v>341.9333541590375</v>
+        <v>342.2586284093219</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32886,28 +33141,28 @@
         <v>0.1075</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0813606007143146</v>
+        <v>-0.118371656781757</v>
       </c>
       <c r="J6" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K6" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001382325860675104</v>
+        <v>0.00292616769636278</v>
       </c>
       <c r="M6" t="n">
-        <v>12.44208471606518</v>
+        <v>12.55700887452193</v>
       </c>
       <c r="N6" t="n">
-        <v>268.2663194632267</v>
+        <v>270.2087309782994</v>
       </c>
       <c r="O6" t="n">
-        <v>16.37883754920436</v>
+        <v>16.43802697948569</v>
       </c>
       <c r="P6" t="n">
-        <v>347.7937036761946</v>
+        <v>348.1512590446014</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32964,28 +33219,28 @@
         <v>0.0833</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1309477755455428</v>
+        <v>-0.163748603846126</v>
       </c>
       <c r="J7" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K7" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003805477886138942</v>
+        <v>0.005954505162416135</v>
       </c>
       <c r="M7" t="n">
-        <v>12.09205758099214</v>
+        <v>12.17564344994389</v>
       </c>
       <c r="N7" t="n">
-        <v>244.7313903651661</v>
+        <v>246.1050825211485</v>
       </c>
       <c r="O7" t="n">
-        <v>15.6438930693471</v>
+        <v>15.68773669211555</v>
       </c>
       <c r="P7" t="n">
-        <v>349.9347433611748</v>
+        <v>350.258668236334</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33042,28 +33297,28 @@
         <v>0.1317</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02380791506021979</v>
+        <v>-0.05084120962109995</v>
       </c>
       <c r="J8" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K8" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001448196919880962</v>
+        <v>0.0006637716895897539</v>
       </c>
       <c r="M8" t="n">
-        <v>11.29200485389451</v>
+        <v>11.3393464219737</v>
       </c>
       <c r="N8" t="n">
-        <v>214.3739823858182</v>
+        <v>215.0060017314728</v>
       </c>
       <c r="O8" t="n">
-        <v>14.6415157134027</v>
+        <v>14.66308295453152</v>
       </c>
       <c r="P8" t="n">
-        <v>349.1831636260271</v>
+        <v>349.4478910198354</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33120,28 +33375,28 @@
         <v>0.1392</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06317498575136282</v>
+        <v>0.04190276286534442</v>
       </c>
       <c r="J9" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K9" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001088731095302609</v>
+        <v>0.0004838819283110585</v>
       </c>
       <c r="M9" t="n">
-        <v>10.96159992441738</v>
+        <v>10.97911672792224</v>
       </c>
       <c r="N9" t="n">
-        <v>202.3932895372531</v>
+        <v>202.2608151726757</v>
       </c>
       <c r="O9" t="n">
-        <v>14.22649955320187</v>
+        <v>14.22184288946674</v>
       </c>
       <c r="P9" t="n">
-        <v>352.4606542325218</v>
+        <v>352.6670943619374</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33198,28 +33453,28 @@
         <v>0.1267</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03576400527285601</v>
+        <v>0.02747482787480136</v>
       </c>
       <c r="J10" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K10" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003514670140098985</v>
+        <v>0.0002109480881722359</v>
       </c>
       <c r="M10" t="n">
-        <v>10.71305503901924</v>
+        <v>10.66664704323336</v>
       </c>
       <c r="N10" t="n">
-        <v>198.8774756694015</v>
+        <v>197.4349299446259</v>
       </c>
       <c r="O10" t="n">
-        <v>14.10239255124468</v>
+        <v>14.05115404316051</v>
       </c>
       <c r="P10" t="n">
-        <v>359.3306292665054</v>
+        <v>359.4110060638179</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33276,28 +33531,28 @@
         <v>0.1147</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004677981489478329</v>
+        <v>-0.00134482615798708</v>
       </c>
       <c r="J11" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K11" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L11" t="n">
-        <v>7.445398678251891e-06</v>
+        <v>6.25829199685235e-07</v>
       </c>
       <c r="M11" t="n">
-        <v>10.03368362292508</v>
+        <v>9.981314354307424</v>
       </c>
       <c r="N11" t="n">
-        <v>161.1065170459922</v>
+        <v>159.8513974913107</v>
       </c>
       <c r="O11" t="n">
-        <v>12.69277420605882</v>
+        <v>12.64323524622202</v>
       </c>
       <c r="P11" t="n">
-        <v>369.4960183186469</v>
+        <v>369.5546072424639</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33354,28 +33609,28 @@
         <v>0.1465</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0494917524040643</v>
+        <v>-0.05351324734604462</v>
       </c>
       <c r="J12" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K12" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0008973788859026888</v>
+        <v>0.001065817446863293</v>
       </c>
       <c r="M12" t="n">
-        <v>9.75255409634663</v>
+        <v>9.709387235311826</v>
       </c>
       <c r="N12" t="n">
-        <v>149.3148558448088</v>
+        <v>148.2359784593087</v>
       </c>
       <c r="O12" t="n">
-        <v>12.21944580759737</v>
+        <v>12.17521985260671</v>
       </c>
       <c r="P12" t="n">
-        <v>367.252845883369</v>
+        <v>367.2921169515367</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33432,28 +33687,28 @@
         <v>0.1773</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1163013952279731</v>
+        <v>-0.1149903025030812</v>
       </c>
       <c r="J13" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K13" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004968506622497149</v>
+        <v>0.004934779139437628</v>
       </c>
       <c r="M13" t="n">
-        <v>9.541443549789221</v>
+        <v>9.493230517656238</v>
       </c>
       <c r="N13" t="n">
-        <v>146.3818255768739</v>
+        <v>145.3423697330684</v>
       </c>
       <c r="O13" t="n">
-        <v>12.09883571162424</v>
+        <v>12.05580232639323</v>
       </c>
       <c r="P13" t="n">
-        <v>362.5752538118404</v>
+        <v>362.5621208637903</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33510,28 +33765,28 @@
         <v>0.145</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2281733613656867</v>
+        <v>-0.2240640687673936</v>
       </c>
       <c r="J14" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K14" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01810127563359898</v>
+        <v>0.01773704651598185</v>
       </c>
       <c r="M14" t="n">
-        <v>9.944662663235361</v>
+        <v>9.905155723635849</v>
       </c>
       <c r="N14" t="n">
-        <v>155.6777250203554</v>
+        <v>154.6208281814989</v>
       </c>
       <c r="O14" t="n">
-        <v>12.47708800242891</v>
+        <v>12.43466236700856</v>
       </c>
       <c r="P14" t="n">
-        <v>361.9514814781424</v>
+        <v>361.9113473099925</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33588,28 +33843,28 @@
         <v>0.1908</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2047767376564276</v>
+        <v>-0.1972166737689382</v>
       </c>
       <c r="J15" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K15" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01543172005830395</v>
+        <v>0.01455655879147444</v>
       </c>
       <c r="M15" t="n">
-        <v>9.933279149348706</v>
+        <v>9.883889951864811</v>
       </c>
       <c r="N15" t="n">
-        <v>149.1840144814893</v>
+        <v>148.1222903536422</v>
       </c>
       <c r="O15" t="n">
-        <v>12.21409081681847</v>
+        <v>12.1705501253494</v>
       </c>
       <c r="P15" t="n">
-        <v>362.3803293285392</v>
+        <v>362.3074410953424</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33666,28 +33921,28 @@
         <v>0.1737</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2395671805496051</v>
+        <v>-0.2336581603100346</v>
       </c>
       <c r="J16" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K16" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01942833979411152</v>
+        <v>0.01880436103788818</v>
       </c>
       <c r="M16" t="n">
-        <v>10.35741721885724</v>
+        <v>10.29545880254262</v>
       </c>
       <c r="N16" t="n">
-        <v>163.0907198062416</v>
+        <v>161.7912749064921</v>
       </c>
       <c r="O16" t="n">
-        <v>12.77069770240615</v>
+        <v>12.71971992248619</v>
       </c>
       <c r="P16" t="n">
-        <v>365.1220613983891</v>
+        <v>365.065283405822</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33744,28 +33999,28 @@
         <v>0.1799</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.2339437502404129</v>
+        <v>-0.2210790922209023</v>
       </c>
       <c r="J17" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K17" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01568686406471298</v>
+        <v>0.01423424772846882</v>
       </c>
       <c r="M17" t="n">
-        <v>11.10835840304866</v>
+        <v>11.07292881446166</v>
       </c>
       <c r="N17" t="n">
-        <v>194.7439248673053</v>
+        <v>193.5815137919734</v>
       </c>
       <c r="O17" t="n">
-        <v>13.95506807103804</v>
+        <v>13.91335738748823</v>
       </c>
       <c r="P17" t="n">
-        <v>368.117916012072</v>
+        <v>367.9937103528904</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33822,28 +34077,28 @@
         <v>0.2</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.2002897280241321</v>
+        <v>-0.1868313135935903</v>
       </c>
       <c r="J18" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K18" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L18" t="n">
-        <v>0.007740047241484471</v>
+        <v>0.006834225392084115</v>
       </c>
       <c r="M18" t="n">
-        <v>13.12558562843155</v>
+        <v>13.08723226297379</v>
       </c>
       <c r="N18" t="n">
-        <v>284.5842517592891</v>
+        <v>282.9177945553106</v>
       </c>
       <c r="O18" t="n">
-        <v>16.86962512207337</v>
+        <v>16.8201603605706</v>
       </c>
       <c r="P18" t="n">
-        <v>361.1682074527163</v>
+        <v>361.0356564453402</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33900,28 +34155,28 @@
         <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1045670195952184</v>
+        <v>-0.09025658053898152</v>
       </c>
       <c r="J19" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K19" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001553607355890496</v>
+        <v>0.001174882830855539</v>
       </c>
       <c r="M19" t="n">
-        <v>15.25075412751875</v>
+        <v>15.19190870738276</v>
       </c>
       <c r="N19" t="n">
-        <v>380.6634949668957</v>
+        <v>378.108430599725</v>
       </c>
       <c r="O19" t="n">
-        <v>19.51059955426526</v>
+        <v>19.44501042940643</v>
       </c>
       <c r="P19" t="n">
-        <v>349.7914747390115</v>
+        <v>349.6481078316917</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -33978,28 +34233,28 @@
         <v>0.1783</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.05274611877174069</v>
+        <v>-0.03177405825236213</v>
       </c>
       <c r="J20" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K20" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000375394054796252</v>
+        <v>0.0001382369909059822</v>
       </c>
       <c r="M20" t="n">
-        <v>16.18017363327787</v>
+        <v>16.13728714229256</v>
       </c>
       <c r="N20" t="n">
-        <v>414.0297083726219</v>
+        <v>411.7338536608917</v>
       </c>
       <c r="O20" t="n">
-        <v>20.34771997970834</v>
+        <v>20.29122602655866</v>
       </c>
       <c r="P20" t="n">
-        <v>342.2873562133198</v>
+        <v>342.0845993953122</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34056,28 +34311,28 @@
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.09910436561434771</v>
+        <v>-0.08142129830262876</v>
       </c>
       <c r="J21" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K21" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001315317746891753</v>
+        <v>0.0009023034102996208</v>
       </c>
       <c r="M21" t="n">
-        <v>16.76723068320552</v>
+        <v>16.69954057036768</v>
       </c>
       <c r="N21" t="n">
-        <v>424.0418187660104</v>
+        <v>421.2427666476256</v>
       </c>
       <c r="O21" t="n">
-        <v>20.59227570634218</v>
+        <v>20.52419953731754</v>
       </c>
       <c r="P21" t="n">
-        <v>344.1046071845233</v>
+        <v>343.9363660551841</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34128,28 +34383,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.01455294737712833</v>
+        <v>0.03240830062491928</v>
       </c>
       <c r="J22" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K22" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L22" t="n">
-        <v>5.318090555606059e-05</v>
+        <v>0.0002670017020423021</v>
       </c>
       <c r="M22" t="n">
-        <v>12.36990504174317</v>
+        <v>12.34787820875482</v>
       </c>
       <c r="N22" t="n">
-        <v>221.5837307058177</v>
+        <v>220.8647634947621</v>
       </c>
       <c r="O22" t="n">
-        <v>14.88568878842419</v>
+        <v>14.86151955537394</v>
       </c>
       <c r="P22" t="n">
-        <v>345.3224556593561</v>
+        <v>345.1501612872397</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34187,7 +34442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W416"/>
+  <dimension ref="A1:W419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75867,6 +76122,357 @@
         </is>
       </c>
     </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>-42.88617896990432,173.31331346114953</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>-42.886419410985845,173.31246991130683</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>-42.88673808152666,173.31168383317063</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>-42.88711083026723,173.3109229550623</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>-42.88752240455376,173.31019165457107</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>-42.88794556491757,173.30948927977335</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>-42.88835159417341,173.30878215162306</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>-42.88879702889855,173.3081159705933</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>-42.889320497024265,173.30753087290714</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>-42.88978167272484,173.30691070785213</t>
+        </is>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>-42.89025304920701,173.3063385472736</t>
+        </is>
+      </c>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>-42.89074221286896,173.30574116369075</t>
+        </is>
+      </c>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>-42.89125443567806,173.30517532193795</t>
+        </is>
+      </c>
+      <c r="O417" t="inlineStr">
+        <is>
+          <t>-42.89183125010152,173.30473022117627</t>
+        </is>
+      </c>
+      <c r="P417" t="inlineStr">
+        <is>
+          <t>-42.89238928747089,173.3042500316155</t>
+        </is>
+      </c>
+      <c r="Q417" t="inlineStr">
+        <is>
+          <t>-42.89294429690065,173.3037990126959</t>
+        </is>
+      </c>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>-42.893493854213496,173.30337511491078</t>
+        </is>
+      </c>
+      <c r="S417" t="inlineStr">
+        <is>
+          <t>-42.894040625570405,173.30287352448386</t>
+        </is>
+      </c>
+      <c r="T417" t="inlineStr">
+        <is>
+          <t>-42.894631012547514,173.30247540117742</t>
+        </is>
+      </c>
+      <c r="U417" t="inlineStr">
+        <is>
+          <t>-42.89522803786817,173.3021126441898</t>
+        </is>
+      </c>
+      <c r="V417" t="inlineStr">
+        <is>
+          <t>-42.8958572190685,173.30187053153858</t>
+        </is>
+      </c>
+      <c r="W417" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:07:30+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>-42.88618879439147,173.31332067864446</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>-42.88645641140819,173.31249709309392</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>-42.88677834492038,173.31171341176326</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>-42.887115683752555,173.31092685169037</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>-42.88747564389017,173.31014701963645</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>-42.88791639065715,173.30945896578913</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>-42.88835030616642,173.3087808133046</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>-42.888820154564854,173.30813999951573</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>-42.889314629395955,173.30752477610142</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>-42.88978832033328,173.30691932823063</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>-42.89023460630599,173.30630649176402</t>
+        </is>
+      </c>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>-42.89076437069875,173.30578258039134</t>
+        </is>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>-42.891301146765244,173.30526263274223</t>
+        </is>
+      </c>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>-42.89185626287702,173.3047769743151</t>
+        </is>
+      </c>
+      <c r="P418" t="inlineStr">
+        <is>
+          <t>-42.892368754965055,173.3042116528611</t>
+        </is>
+      </c>
+      <c r="Q418" t="inlineStr">
+        <is>
+          <t>-42.89294603059704,173.3038027382924</t>
+        </is>
+      </c>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>-42.89344926634013,173.3032530464668</t>
+        </is>
+      </c>
+      <c r="S418" t="inlineStr">
+        <is>
+          <t>-42.894016190521825,173.3027997335894</t>
+        </is>
+      </c>
+      <c r="T418" t="inlineStr">
+        <is>
+          <t>-42.89461714524569,173.30243352353725</t>
+        </is>
+      </c>
+      <c r="U418" t="inlineStr">
+        <is>
+          <t>-42.89519805400653,173.30200953032386</t>
+        </is>
+      </c>
+      <c r="V418" t="inlineStr">
+        <is>
+          <t>-42.895816676056164,173.3017095475035</t>
+        </is>
+      </c>
+      <c r="W418" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>-42.8862243157187,173.31334677417607</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>-42.88648908058344,173.31252109302866</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>-42.88684327772888,173.31176111327795</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>-42.88718225494613,173.3109802985474</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>-42.887530737792055,173.31019960899118</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>-42.887930006675994,173.30947311372773</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>-42.88839975131157,173.30883218990388</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>-42.88888323459084,173.30820554347795</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>-42.889361498856694,173.30757347622819</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>-42.889811604108274,173.30694952181054</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>-42.890290246223444,173.30640319931908</t>
+        </is>
+      </c>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t>-42.890801967548484,173.3058528553424</t>
+        </is>
+      </c>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>-42.89131802935828,173.30529418918474</t>
+        </is>
+      </c>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>-42.89182954738321,173.30472703850836</t>
+        </is>
+      </c>
+      <c r="P419" t="inlineStr">
+        <is>
+          <t>-42.8923649402702,173.30420452255146</t>
+        </is>
+      </c>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>-42.8929043255336,173.30371311705662</t>
+        </is>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>-42.89345382405185,173.3032655241125</t>
+        </is>
+      </c>
+      <c r="S419" t="inlineStr">
+        <is>
+          <t>-42.894027825286926,173.30283486914902</t>
+        </is>
+      </c>
+      <c r="T419" t="inlineStr">
+        <is>
+          <t>-42.89460525017009,173.302397601843</t>
+        </is>
+      </c>
+      <c r="U419" t="inlineStr">
+        <is>
+          <t>-42.89520231479339,173.3020241830542</t>
+        </is>
+      </c>
+      <c r="V419" t="inlineStr">
+        <is>
+          <t>-42.8958484735711,173.3018358057204</t>
+        </is>
+      </c>
+      <c r="W419" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0410/nzd0410.xlsx
+++ b/data/nzd0410/nzd0410.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W419"/>
+  <dimension ref="A1:W420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28403,6 +28403,79 @@
         </is>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr"/>
+      <c r="C420" t="n">
+        <v>321.2633333333333</v>
+      </c>
+      <c r="D420" t="n">
+        <v>329.7009090909091</v>
+      </c>
+      <c r="E420" t="n">
+        <v>338.8076470588235</v>
+      </c>
+      <c r="F420" t="n">
+        <v>345.6376470588235</v>
+      </c>
+      <c r="G420" t="n">
+        <v>350.2028571428572</v>
+      </c>
+      <c r="H420" t="n">
+        <v>352.52</v>
+      </c>
+      <c r="I420" t="n">
+        <v>353.370909090909</v>
+      </c>
+      <c r="J420" t="n">
+        <v>369.24</v>
+      </c>
+      <c r="K420" t="n">
+        <v>383.2052631578948</v>
+      </c>
+      <c r="L420" t="n">
+        <v>376.8569565217391</v>
+      </c>
+      <c r="M420" t="n">
+        <v>369.9640740740741</v>
+      </c>
+      <c r="N420" t="n">
+        <v>365.6969565217392</v>
+      </c>
+      <c r="O420" t="n">
+        <v>370.9889655172414</v>
+      </c>
+      <c r="P420" t="n">
+        <v>370.5269230769231</v>
+      </c>
+      <c r="Q420" t="n">
+        <v>371.81</v>
+      </c>
+      <c r="R420" t="n">
+        <v>360.1489655172414</v>
+      </c>
+      <c r="S420" t="n">
+        <v>347.3940740740741</v>
+      </c>
+      <c r="T420" t="n">
+        <v>333.7033333333333</v>
+      </c>
+      <c r="U420" t="n">
+        <v>332.8069565217392</v>
+      </c>
+      <c r="V420" t="n">
+        <v>334.9969565217392</v>
+      </c>
+      <c r="W420" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28414,7 +28487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B424"/>
+  <dimension ref="A1:B425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32662,6 +32735,16 @@
       </c>
       <c r="B424" t="n">
         <v>-0.61</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -32832,7 +32915,7 @@
         <v>-0.5472170149595418</v>
       </c>
       <c r="J2" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K2" t="n">
         <v>289</v>
@@ -32907,28 +32990,28 @@
         <v>0.1644</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01343059094113698</v>
+        <v>0.00796393582331313</v>
       </c>
       <c r="J3" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K3" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38476543436461e-05</v>
+        <v>4.899751818165932e-06</v>
       </c>
       <c r="M3" t="n">
-        <v>13.48109266961026</v>
+        <v>13.46991919946394</v>
       </c>
       <c r="N3" t="n">
-        <v>735.1470209070633</v>
+        <v>732.9671372254502</v>
       </c>
       <c r="O3" t="n">
-        <v>27.11359476179917</v>
+        <v>27.07336582742253</v>
       </c>
       <c r="P3" t="n">
-        <v>329.7270937552582</v>
+        <v>329.7802393714825</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32985,28 +33068,28 @@
         <v>0.1505</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03477670977800994</v>
+        <v>-0.03848207873951123</v>
       </c>
       <c r="J4" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K4" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002859845342593204</v>
+        <v>0.0003523202272363024</v>
       </c>
       <c r="M4" t="n">
-        <v>11.62656391525707</v>
+        <v>11.60986866251764</v>
       </c>
       <c r="N4" t="n">
-        <v>230.9654522433959</v>
+        <v>230.3280581397601</v>
       </c>
       <c r="O4" t="n">
-        <v>15.19754757332235</v>
+        <v>15.17656279069013</v>
       </c>
       <c r="P4" t="n">
-        <v>336.5091602737087</v>
+        <v>336.5458843052855</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33063,28 +33146,28 @@
         <v>0.1087</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05075351105534831</v>
+        <v>-0.05200492694049479</v>
       </c>
       <c r="J5" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K5" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005171173499440851</v>
+        <v>0.0005462775851703405</v>
       </c>
       <c r="M5" t="n">
-        <v>12.73316150357874</v>
+        <v>12.70173913028676</v>
       </c>
       <c r="N5" t="n">
-        <v>279.1054713663685</v>
+        <v>278.2581449258917</v>
       </c>
       <c r="O5" t="n">
-        <v>16.70644999293292</v>
+        <v>16.68107145617126</v>
       </c>
       <c r="P5" t="n">
-        <v>342.2586284093219</v>
+        <v>342.2708393119158</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33141,28 +33224,28 @@
         <v>0.1075</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.118371656781757</v>
+        <v>-0.1180762098683838</v>
       </c>
       <c r="J6" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K6" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00292616769636278</v>
+        <v>0.002929042814783678</v>
       </c>
       <c r="M6" t="n">
-        <v>12.55700887452193</v>
+        <v>12.52040841819406</v>
       </c>
       <c r="N6" t="n">
-        <v>270.2087309782994</v>
+        <v>269.3932156315598</v>
       </c>
       <c r="O6" t="n">
-        <v>16.43802697948569</v>
+        <v>16.41320247945415</v>
       </c>
       <c r="P6" t="n">
-        <v>348.1512590446014</v>
+        <v>348.1483848440822</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33219,28 +33302,28 @@
         <v>0.0833</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.163748603846126</v>
+        <v>-0.1615076428143314</v>
       </c>
       <c r="J7" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K7" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005954505162416135</v>
+        <v>0.005825251048271141</v>
       </c>
       <c r="M7" t="n">
-        <v>12.17564344994389</v>
+        <v>12.15158231617431</v>
       </c>
       <c r="N7" t="n">
-        <v>246.1050825211485</v>
+        <v>245.4525228491484</v>
       </c>
       <c r="O7" t="n">
-        <v>15.68773669211555</v>
+        <v>15.66692448597198</v>
       </c>
       <c r="P7" t="n">
-        <v>350.258668236334</v>
+        <v>350.2363911561129</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33297,28 +33380,28 @@
         <v>0.1317</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.05084120962109995</v>
+        <v>-0.04849763647631204</v>
       </c>
       <c r="J8" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K8" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006637716895897539</v>
+        <v>0.0006073152364078904</v>
       </c>
       <c r="M8" t="n">
-        <v>11.3393464219737</v>
+        <v>11.31957939927537</v>
       </c>
       <c r="N8" t="n">
-        <v>215.0060017314728</v>
+        <v>214.4554168562086</v>
       </c>
       <c r="O8" t="n">
-        <v>14.66308295453152</v>
+        <v>14.64429639334743</v>
       </c>
       <c r="P8" t="n">
-        <v>349.4478910198354</v>
+        <v>349.4247773041126</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33375,28 +33458,28 @@
         <v>0.1392</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04190276286534442</v>
+        <v>0.04169682783185902</v>
       </c>
       <c r="J9" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K9" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004838819283110585</v>
+        <v>0.0004819821129432578</v>
       </c>
       <c r="M9" t="n">
-        <v>10.97911672792224</v>
+        <v>10.94819577645225</v>
       </c>
       <c r="N9" t="n">
-        <v>202.2608151726757</v>
+        <v>201.6715330380334</v>
       </c>
       <c r="O9" t="n">
-        <v>14.22184288946674</v>
+        <v>14.20111027483532</v>
       </c>
       <c r="P9" t="n">
-        <v>352.6670943619374</v>
+        <v>352.6691084786441</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33453,28 +33536,28 @@
         <v>0.1267</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02747482787480136</v>
+        <v>0.03257891754950746</v>
       </c>
       <c r="J10" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K10" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002109480881722359</v>
+        <v>0.0002980185956662496</v>
       </c>
       <c r="M10" t="n">
-        <v>10.66664704323336</v>
+        <v>10.65982913553019</v>
       </c>
       <c r="N10" t="n">
-        <v>197.4349299446259</v>
+        <v>197.1037105274762</v>
       </c>
       <c r="O10" t="n">
-        <v>14.05115404316051</v>
+        <v>14.03936289606748</v>
       </c>
       <c r="P10" t="n">
-        <v>359.4110060638179</v>
+        <v>359.3611282817257</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33531,28 +33614,28 @@
         <v>0.1147</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.00134482615798708</v>
+        <v>0.006253172895323175</v>
       </c>
       <c r="J11" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K11" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L11" t="n">
-        <v>6.25829199685235e-07</v>
+        <v>1.356577022448846e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>9.981314354307424</v>
+        <v>9.987607140600462</v>
       </c>
       <c r="N11" t="n">
-        <v>159.8513974913107</v>
+        <v>159.9259152519266</v>
       </c>
       <c r="O11" t="n">
-        <v>12.64323524622202</v>
+        <v>12.64618184480702</v>
       </c>
       <c r="P11" t="n">
-        <v>369.5546072424639</v>
+        <v>369.4801012037712</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33609,28 +33692,28 @@
         <v>0.1465</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05351324734604462</v>
+        <v>-0.04756766621327961</v>
       </c>
       <c r="J12" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K12" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001065817446863293</v>
+        <v>0.0008452729175615348</v>
       </c>
       <c r="M12" t="n">
-        <v>9.709387235311826</v>
+        <v>9.710528340298378</v>
       </c>
       <c r="N12" t="n">
-        <v>148.2359784593087</v>
+        <v>148.1516116940699</v>
       </c>
       <c r="O12" t="n">
-        <v>12.17521985260671</v>
+        <v>12.17175466783939</v>
       </c>
       <c r="P12" t="n">
-        <v>367.2921169515367</v>
+        <v>367.2334896631652</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33687,28 +33770,28 @@
         <v>0.1773</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1149903025030812</v>
+        <v>-0.1094169382551091</v>
       </c>
       <c r="J13" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K13" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004934779139437628</v>
+        <v>0.004486499301121549</v>
       </c>
       <c r="M13" t="n">
-        <v>9.493230517656238</v>
+        <v>9.494077090771944</v>
       </c>
       <c r="N13" t="n">
-        <v>145.3423697330684</v>
+        <v>145.2335948061681</v>
       </c>
       <c r="O13" t="n">
-        <v>12.05580232639323</v>
+        <v>12.05129017185165</v>
       </c>
       <c r="P13" t="n">
-        <v>362.5621208637903</v>
+        <v>362.5067756112893</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33765,28 +33848,28 @@
         <v>0.145</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2240640687673936</v>
+        <v>-0.2188877994035246</v>
       </c>
       <c r="J14" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K14" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01773704651598185</v>
+        <v>0.01701008492070344</v>
       </c>
       <c r="M14" t="n">
-        <v>9.905155723635849</v>
+        <v>9.902264260007991</v>
       </c>
       <c r="N14" t="n">
-        <v>154.6208281814989</v>
+        <v>154.4377480854273</v>
       </c>
       <c r="O14" t="n">
-        <v>12.43466236700856</v>
+        <v>12.4272985031111</v>
       </c>
       <c r="P14" t="n">
-        <v>361.9113473099925</v>
+        <v>361.8607257562329</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33843,28 +33926,28 @@
         <v>0.1908</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1972166737689382</v>
+        <v>-0.1897408624592386</v>
       </c>
       <c r="J15" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K15" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01455655879147444</v>
+        <v>0.0135178886995776</v>
       </c>
       <c r="M15" t="n">
-        <v>9.883889951864811</v>
+        <v>9.891438213472023</v>
       </c>
       <c r="N15" t="n">
-        <v>148.1222903536422</v>
+        <v>148.2347549111597</v>
       </c>
       <c r="O15" t="n">
-        <v>12.1705501253494</v>
+        <v>12.17516960502644</v>
       </c>
       <c r="P15" t="n">
-        <v>362.3074410953424</v>
+        <v>362.2348722027843</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33921,28 +34004,28 @@
         <v>0.1737</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2336581603100346</v>
+        <v>-0.2273588690271664</v>
       </c>
       <c r="J16" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K16" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01880436103788818</v>
+        <v>0.01788316231071274</v>
       </c>
       <c r="M16" t="n">
-        <v>10.29545880254262</v>
+        <v>10.2964638671347</v>
       </c>
       <c r="N16" t="n">
-        <v>161.7912749064921</v>
+        <v>161.6979978139165</v>
       </c>
       <c r="O16" t="n">
-        <v>12.71971992248619</v>
+        <v>12.71605276073973</v>
       </c>
       <c r="P16" t="n">
-        <v>365.065283405822</v>
+        <v>365.0042454035283</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33999,28 +34082,28 @@
         <v>0.1799</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.2210790922209023</v>
+        <v>-0.2156639403683777</v>
       </c>
       <c r="J17" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K17" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01423424772846882</v>
+        <v>0.01361569171983856</v>
       </c>
       <c r="M17" t="n">
-        <v>11.07292881446166</v>
+        <v>11.06717024978135</v>
       </c>
       <c r="N17" t="n">
-        <v>193.5815137919734</v>
+        <v>193.2545119925027</v>
       </c>
       <c r="O17" t="n">
-        <v>13.91335738748823</v>
+        <v>13.90160105860123</v>
       </c>
       <c r="P17" t="n">
-        <v>367.9937103528904</v>
+        <v>367.940982703594</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34077,28 +34160,28 @@
         <v>0.2</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1868313135935903</v>
+        <v>-0.1847344833816279</v>
       </c>
       <c r="J18" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K18" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006834225392084115</v>
+        <v>0.006718709895753294</v>
       </c>
       <c r="M18" t="n">
-        <v>13.08723226297379</v>
+        <v>13.06108283806254</v>
       </c>
       <c r="N18" t="n">
-        <v>282.9177945553106</v>
+        <v>282.1394100001538</v>
       </c>
       <c r="O18" t="n">
-        <v>16.8201603605706</v>
+        <v>16.7970059832148</v>
       </c>
       <c r="P18" t="n">
-        <v>361.0356564453402</v>
+        <v>361.0148304336292</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34155,28 +34238,28 @@
         <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.09025658053898152</v>
+        <v>-0.09022284347072607</v>
       </c>
       <c r="J19" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K19" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001174882830855539</v>
+        <v>0.001180494247710162</v>
       </c>
       <c r="M19" t="n">
-        <v>15.19190870738276</v>
+        <v>15.14842312971993</v>
       </c>
       <c r="N19" t="n">
-        <v>378.108430599725</v>
+        <v>377.0219233808466</v>
       </c>
       <c r="O19" t="n">
-        <v>19.44501042940643</v>
+        <v>19.4170523865196</v>
       </c>
       <c r="P19" t="n">
-        <v>349.6481078316917</v>
+        <v>349.6477673577368</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34233,28 +34316,28 @@
         <v>0.1783</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.03177405825236213</v>
+        <v>-0.03602788206346098</v>
       </c>
       <c r="J20" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K20" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001382369909059822</v>
+        <v>0.0001787144541270935</v>
       </c>
       <c r="M20" t="n">
-        <v>16.13728714229256</v>
+        <v>16.11305123367007</v>
       </c>
       <c r="N20" t="n">
-        <v>411.7338536608917</v>
+        <v>410.6677640161537</v>
       </c>
       <c r="O20" t="n">
-        <v>20.29122602655866</v>
+        <v>20.26493927985361</v>
       </c>
       <c r="P20" t="n">
-        <v>342.0845993953122</v>
+        <v>342.1260347435542</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34311,28 +34394,28 @@
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.08142129830262876</v>
+        <v>-0.08657715186171928</v>
       </c>
       <c r="J21" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K21" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0009023034102996208</v>
+        <v>0.001025747363223029</v>
       </c>
       <c r="M21" t="n">
-        <v>16.69954057036768</v>
+        <v>16.67830053343123</v>
       </c>
       <c r="N21" t="n">
-        <v>421.2427666476256</v>
+        <v>420.1989538336396</v>
       </c>
       <c r="O21" t="n">
-        <v>20.52419953731754</v>
+        <v>20.49875493374267</v>
       </c>
       <c r="P21" t="n">
-        <v>343.9363660551841</v>
+        <v>343.9858047454292</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34383,28 +34466,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.03240830062491928</v>
+        <v>0.02613893513477897</v>
       </c>
       <c r="J22" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K22" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002670017020423021</v>
+        <v>0.000174489637459585</v>
       </c>
       <c r="M22" t="n">
-        <v>12.34787820875482</v>
+        <v>12.34487288627709</v>
       </c>
       <c r="N22" t="n">
-        <v>220.8647634947621</v>
+        <v>220.5596721032962</v>
       </c>
       <c r="O22" t="n">
-        <v>14.86151955537394</v>
+        <v>14.851251533231</v>
       </c>
       <c r="P22" t="n">
-        <v>345.1501612872397</v>
+        <v>345.2110856488549</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34442,7 +34525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W419"/>
+  <dimension ref="A1:W420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76473,6 +76556,119 @@
         </is>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr"/>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>-42.88650268173406,173.3125310849249</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>-42.88688064559633,173.31178856484402</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>-42.88726502871258,173.31104675387243</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>-42.887671180086386,173.31033366736594</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>-42.88810186275927,173.30965168419118</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>-42.88851645893337,173.3089534568484</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>-42.88892056087863,173.30824432783044</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>-42.88943212501143,173.30764686113878</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>-42.8899061454812,173.30707212007707</t>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>-42.89033342675712,173.3064782514796</t>
+        </is>
+      </c>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t>-42.890820206714295,173.30588694752714</t>
+        </is>
+      </c>
+      <c r="N420" t="inlineStr">
+        <is>
+          <t>-42.89132863251597,173.30531400831003</t>
+        </is>
+      </c>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>-42.8918876991821,173.3048357342298</t>
+        </is>
+      </c>
+      <c r="P420" t="inlineStr">
+        <is>
+          <t>-42.892416275591955,173.30430047709123</t>
+        </is>
+      </c>
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t>-42.89294169635588,173.30379342430155</t>
+        </is>
+      </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>-42.893448318601166,173.30325045184293</t>
+        </is>
+      </c>
+      <c r="S420" t="inlineStr">
+        <is>
+          <t>-42.89399618061794,173.30273930624807</t>
+        </is>
+      </c>
+      <c r="T420" t="inlineStr">
+        <is>
+          <t>-42.89454485012931,173.30221520174257</t>
+        </is>
+      </c>
+      <c r="U420" t="inlineStr">
+        <is>
+          <t>-42.895146050367664,173.3018306919069</t>
+        </is>
+      </c>
+      <c r="V420" t="inlineStr">
+        <is>
+          <t>-42.89577902559784,173.3015600499213</t>
+        </is>
+      </c>
+      <c r="W420" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0410/nzd0410.xlsx
+++ b/data/nzd0410/nzd0410.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W420"/>
+  <dimension ref="A1:W421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28409,7 +28409,9 @@
           <t>2025-05-06 22:07:18+00:00</t>
         </is>
       </c>
-      <c r="B420" t="inlineStr"/>
+      <c r="B420" t="n">
+        <v>167.9033333333333</v>
+      </c>
       <c r="C420" t="n">
         <v>321.2633333333333</v>
       </c>
@@ -28473,6 +28475,77 @@
       <c r="W420" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>159.8133333333333</v>
+      </c>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr"/>
+      <c r="E421" t="n">
+        <v>330.0470588235294</v>
+      </c>
+      <c r="F421" t="n">
+        <v>340.4070588235294</v>
+      </c>
+      <c r="G421" t="n">
+        <v>348.2085714285714</v>
+      </c>
+      <c r="H421" t="n">
+        <v>344.93</v>
+      </c>
+      <c r="I421" t="n">
+        <v>348.4781818181818</v>
+      </c>
+      <c r="J421" t="n">
+        <v>358.89</v>
+      </c>
+      <c r="K421" t="n">
+        <v>362.8331578947368</v>
+      </c>
+      <c r="L421" t="n">
+        <v>364.785652173913</v>
+      </c>
+      <c r="M421" t="n">
+        <v>361.6062962962963</v>
+      </c>
+      <c r="N421" t="n">
+        <v>359.3856521739131</v>
+      </c>
+      <c r="O421" t="n">
+        <v>356.3879310344827</v>
+      </c>
+      <c r="P421" t="n">
+        <v>352.4046153846153</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>353.04</v>
+      </c>
+      <c r="R421" t="n">
+        <v>348.1679310344827</v>
+      </c>
+      <c r="S421" t="n">
+        <v>336.3362962962963</v>
+      </c>
+      <c r="T421" t="n">
+        <v>329.7233333333333</v>
+      </c>
+      <c r="U421" t="n">
+        <v>328.1256521739131</v>
+      </c>
+      <c r="V421" t="n">
+        <v>336.835652173913</v>
+      </c>
+      <c r="W421" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -28487,7 +28560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B425"/>
+  <dimension ref="A1:B426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32745,6 +32818,16 @@
       </c>
       <c r="B425" t="n">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -32912,28 +32995,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.5472170149595418</v>
+        <v>-0.7475499872313635</v>
       </c>
       <c r="J2" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K2" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01118979719641156</v>
+        <v>0.01884943722326737</v>
       </c>
       <c r="M2" t="n">
-        <v>19.86905922631915</v>
+        <v>21.67162971578988</v>
       </c>
       <c r="N2" t="n">
-        <v>1510.935626893919</v>
+        <v>1671.757959976017</v>
       </c>
       <c r="O2" t="n">
-        <v>38.87075541964575</v>
+        <v>40.88713685226708</v>
       </c>
       <c r="P2" t="n">
-        <v>337.3115363600793</v>
+        <v>339.2598388890552</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32993,7 +33076,7 @@
         <v>0.00796393582331313</v>
       </c>
       <c r="J3" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K3" t="n">
         <v>302</v>
@@ -33071,7 +33154,7 @@
         <v>-0.03848207873951123</v>
       </c>
       <c r="J4" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K4" t="n">
         <v>308</v>
@@ -33146,28 +33229,28 @@
         <v>0.1087</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05200492694049479</v>
+        <v>-0.05832648559605393</v>
       </c>
       <c r="J5" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K5" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005462775851703405</v>
+        <v>0.0006904468530369856</v>
       </c>
       <c r="M5" t="n">
-        <v>12.70173913028676</v>
+        <v>12.70210593669097</v>
       </c>
       <c r="N5" t="n">
-        <v>278.2581449258917</v>
+        <v>277.7631798942336</v>
       </c>
       <c r="O5" t="n">
-        <v>16.68107145617126</v>
+        <v>16.66622872440654</v>
       </c>
       <c r="P5" t="n">
-        <v>342.2708393119158</v>
+        <v>342.3327290477025</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33224,28 +33307,28 @@
         <v>0.1075</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1180762098683838</v>
+        <v>-0.1207151734011207</v>
       </c>
       <c r="J6" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K6" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002929042814783678</v>
+        <v>0.003078601214777321</v>
       </c>
       <c r="M6" t="n">
-        <v>12.52040841819406</v>
+        <v>12.49895259543219</v>
       </c>
       <c r="N6" t="n">
-        <v>269.3932156315598</v>
+        <v>268.6478012755197</v>
       </c>
       <c r="O6" t="n">
-        <v>16.41320247945415</v>
+        <v>16.39047898249223</v>
       </c>
       <c r="P6" t="n">
-        <v>348.1483848440822</v>
+        <v>348.1741450107785</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33302,28 +33385,28 @@
         <v>0.0833</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1615076428143314</v>
+        <v>-0.1603601099481657</v>
       </c>
       <c r="J7" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K7" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005825251048271141</v>
+        <v>0.005775513929226817</v>
       </c>
       <c r="M7" t="n">
-        <v>12.15158231617431</v>
+        <v>12.1224511903482</v>
       </c>
       <c r="N7" t="n">
-        <v>245.4525228491484</v>
+        <v>244.7679784545589</v>
       </c>
       <c r="O7" t="n">
-        <v>15.66692448597198</v>
+        <v>15.64506243051011</v>
       </c>
       <c r="P7" t="n">
-        <v>350.2363911561129</v>
+        <v>350.2249459047587</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33380,28 +33463,28 @@
         <v>0.1317</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.04849763647631204</v>
+        <v>-0.0502319208704413</v>
       </c>
       <c r="J8" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K8" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006073152364078904</v>
+        <v>0.0006551257766034269</v>
       </c>
       <c r="M8" t="n">
-        <v>11.31957939927537</v>
+        <v>11.29703203643645</v>
       </c>
       <c r="N8" t="n">
-        <v>214.4554168562086</v>
+        <v>213.8839774691177</v>
       </c>
       <c r="O8" t="n">
-        <v>14.64429639334743</v>
+        <v>14.62477273222109</v>
       </c>
       <c r="P8" t="n">
-        <v>349.4247773041126</v>
+        <v>349.4419381123382</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33458,28 +33541,28 @@
         <v>0.1392</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04169682783185902</v>
+        <v>0.03878918335488091</v>
       </c>
       <c r="J9" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K9" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004819821129432578</v>
+        <v>0.0004194432880751942</v>
       </c>
       <c r="M9" t="n">
-        <v>10.94819577645225</v>
+        <v>10.93159233926043</v>
       </c>
       <c r="N9" t="n">
-        <v>201.6715330380334</v>
+        <v>201.1651223919054</v>
       </c>
       <c r="O9" t="n">
-        <v>14.20111027483532</v>
+        <v>14.18326910101848</v>
       </c>
       <c r="P9" t="n">
-        <v>352.6691084786441</v>
+        <v>352.6976403297448</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33536,28 +33619,28 @@
         <v>0.1267</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03257891754950746</v>
+        <v>0.03184837342691629</v>
       </c>
       <c r="J10" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K10" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002980185956662496</v>
+        <v>0.0002865274341784518</v>
       </c>
       <c r="M10" t="n">
-        <v>10.65982913553019</v>
+        <v>10.63323400451019</v>
       </c>
       <c r="N10" t="n">
-        <v>197.1037105274762</v>
+        <v>196.5422048597424</v>
       </c>
       <c r="O10" t="n">
-        <v>14.03936289606748</v>
+        <v>14.01935108554395</v>
       </c>
       <c r="P10" t="n">
-        <v>359.3611282817257</v>
+        <v>359.3682901177004</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33614,28 +33697,28 @@
         <v>0.1147</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006253172895323175</v>
+        <v>0.002483622515347207</v>
       </c>
       <c r="J11" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K11" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L11" t="n">
-        <v>1.356577022448846e-05</v>
+        <v>2.151026893604246e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>9.987607140600462</v>
+        <v>9.980450077692044</v>
       </c>
       <c r="N11" t="n">
-        <v>159.9259152519266</v>
+        <v>159.5974231695335</v>
       </c>
       <c r="O11" t="n">
-        <v>12.64618184480702</v>
+        <v>12.63318737174168</v>
       </c>
       <c r="P11" t="n">
-        <v>369.4801012037712</v>
+        <v>369.5171856774441</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33692,28 +33775,28 @@
         <v>0.1465</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.04756766621327961</v>
+        <v>-0.04823115891670179</v>
       </c>
       <c r="J12" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K12" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0008452729175615348</v>
+        <v>0.0008740073568116458</v>
       </c>
       <c r="M12" t="n">
-        <v>9.710528340298378</v>
+        <v>9.686650161212041</v>
       </c>
       <c r="N12" t="n">
-        <v>148.1516116940699</v>
+        <v>147.7349436105746</v>
       </c>
       <c r="O12" t="n">
-        <v>12.17175466783939</v>
+        <v>12.15462642826075</v>
       </c>
       <c r="P12" t="n">
-        <v>367.2334896631652</v>
+        <v>367.2400536216438</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33770,28 +33853,28 @@
         <v>0.1773</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1094169382551091</v>
+        <v>-0.1083882385187297</v>
       </c>
       <c r="J13" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K13" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004486499301121549</v>
+        <v>0.004427766830807034</v>
       </c>
       <c r="M13" t="n">
-        <v>9.494077090771944</v>
+        <v>9.472747153762958</v>
       </c>
       <c r="N13" t="n">
-        <v>145.2335948061681</v>
+        <v>144.8402733735712</v>
       </c>
       <c r="O13" t="n">
-        <v>12.05129017185165</v>
+        <v>12.03496046414658</v>
       </c>
       <c r="P13" t="n">
-        <v>362.5067756112893</v>
+        <v>362.4965273980436</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33848,28 +33931,28 @@
         <v>0.145</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2188877994035246</v>
+        <v>-0.2171780395016647</v>
       </c>
       <c r="J14" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K14" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01701008492070344</v>
+        <v>0.01684295379960199</v>
       </c>
       <c r="M14" t="n">
-        <v>9.902264260007991</v>
+        <v>9.88247448529413</v>
       </c>
       <c r="N14" t="n">
-        <v>154.4377480854273</v>
+        <v>154.0282590117976</v>
       </c>
       <c r="O14" t="n">
-        <v>12.4272985031111</v>
+        <v>12.41081218179526</v>
       </c>
       <c r="P14" t="n">
-        <v>361.8607257562329</v>
+        <v>361.8439502368104</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33926,28 +34009,28 @@
         <v>0.1908</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1897408624592386</v>
+        <v>-0.1902637538099673</v>
       </c>
       <c r="J15" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K15" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0135178886995776</v>
+        <v>0.01366985310873758</v>
       </c>
       <c r="M15" t="n">
-        <v>9.891438213472023</v>
+        <v>9.866064848341081</v>
       </c>
       <c r="N15" t="n">
-        <v>148.2347549111597</v>
+        <v>147.8126520768123</v>
       </c>
       <c r="O15" t="n">
-        <v>12.17516960502644</v>
+        <v>12.15782267006771</v>
       </c>
       <c r="P15" t="n">
-        <v>362.2348722027843</v>
+        <v>362.2399648843843</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34004,28 +34087,28 @@
         <v>0.1737</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2273588690271664</v>
+        <v>-0.2310585928329241</v>
       </c>
       <c r="J16" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K16" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01788316231071274</v>
+        <v>0.018550783069331</v>
       </c>
       <c r="M16" t="n">
-        <v>10.2964638671347</v>
+        <v>10.2872697331625</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6979978139165</v>
+        <v>161.355182151655</v>
       </c>
       <c r="O16" t="n">
-        <v>12.71605276073973</v>
+        <v>12.70256596722312</v>
       </c>
       <c r="P16" t="n">
-        <v>365.0042454035283</v>
+        <v>365.0402166304682</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34082,28 +34165,28 @@
         <v>0.1799</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.2156639403683777</v>
+        <v>-0.2209836366779631</v>
       </c>
       <c r="J17" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K17" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01361569171983856</v>
+        <v>0.01435073966786771</v>
       </c>
       <c r="M17" t="n">
-        <v>11.06717024978135</v>
+        <v>11.06230513640353</v>
       </c>
       <c r="N17" t="n">
-        <v>193.2545119925027</v>
+        <v>192.9213462124653</v>
       </c>
       <c r="O17" t="n">
-        <v>13.90160105860123</v>
+        <v>13.88961288922284</v>
       </c>
       <c r="P17" t="n">
-        <v>367.940982703594</v>
+        <v>367.9929637375776</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34160,28 +34243,28 @@
         <v>0.2</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1847344833816279</v>
+        <v>-0.1890659031710578</v>
       </c>
       <c r="J18" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K18" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006718709895753294</v>
+        <v>0.007069568815305183</v>
       </c>
       <c r="M18" t="n">
-        <v>13.06108283806254</v>
+        <v>13.04558568163214</v>
       </c>
       <c r="N18" t="n">
-        <v>282.1394100001538</v>
+        <v>281.5098394894536</v>
       </c>
       <c r="O18" t="n">
-        <v>16.7970059832148</v>
+        <v>16.77825495960332</v>
       </c>
       <c r="P18" t="n">
-        <v>361.0148304336292</v>
+        <v>361.0579992495347</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34238,28 +34321,28 @@
         <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.09022284347072607</v>
+        <v>-0.09610914509381344</v>
       </c>
       <c r="J19" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K19" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001180494247710162</v>
+        <v>0.00134552722371073</v>
       </c>
       <c r="M19" t="n">
-        <v>15.14842312971993</v>
+        <v>15.13819329828065</v>
       </c>
       <c r="N19" t="n">
-        <v>377.0219233808466</v>
+        <v>376.2847822660829</v>
       </c>
       <c r="O19" t="n">
-        <v>19.4170523865196</v>
+        <v>19.39806130174051</v>
       </c>
       <c r="P19" t="n">
-        <v>349.6477673577368</v>
+        <v>349.7073730792159</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34316,28 +34399,28 @@
         <v>0.1783</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.03602788206346098</v>
+        <v>-0.0424619953726452</v>
       </c>
       <c r="J20" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K20" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001787144541270935</v>
+        <v>0.0002494824892401715</v>
       </c>
       <c r="M20" t="n">
-        <v>16.11305123367007</v>
+        <v>16.10140724937162</v>
       </c>
       <c r="N20" t="n">
-        <v>410.6677640161537</v>
+        <v>409.8289636171891</v>
       </c>
       <c r="O20" t="n">
-        <v>20.26493927985361</v>
+        <v>20.24423284832471</v>
       </c>
       <c r="P20" t="n">
-        <v>342.1260347435542</v>
+        <v>342.1889196433602</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34394,28 +34477,28 @@
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.08657715186171928</v>
+        <v>-0.09432864647521938</v>
       </c>
       <c r="J21" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K21" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001025747363223029</v>
+        <v>0.001223261656078778</v>
       </c>
       <c r="M21" t="n">
-        <v>16.67830053343123</v>
+        <v>16.67196623088883</v>
       </c>
       <c r="N21" t="n">
-        <v>420.1989538336396</v>
+        <v>419.4770280623879</v>
       </c>
       <c r="O21" t="n">
-        <v>20.49875493374267</v>
+        <v>20.48113834879272</v>
       </c>
       <c r="P21" t="n">
-        <v>343.9858047454292</v>
+        <v>344.0603870003108</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34466,28 +34549,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.02613893513477897</v>
+        <v>0.02099050896441018</v>
       </c>
       <c r="J22" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K22" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L22" t="n">
-        <v>0.000174489637459585</v>
+        <v>0.0001130961528168495</v>
       </c>
       <c r="M22" t="n">
-        <v>12.34487288627709</v>
+        <v>12.33596782117642</v>
       </c>
       <c r="N22" t="n">
-        <v>220.5596721032962</v>
+        <v>220.1409468428066</v>
       </c>
       <c r="O22" t="n">
-        <v>14.851251533231</v>
+        <v>14.83714753053317</v>
       </c>
       <c r="P22" t="n">
-        <v>345.2110856488549</v>
+        <v>345.261283195013</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34525,7 +34608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W420"/>
+  <dimension ref="A1:W421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46013,7 +46096,7 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>-42.8923647568714,173.30420417974815</t>
+          <t>-42.892364756871395,173.30420417974815</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
@@ -46643,7 +46726,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>-42.89235348803187,173.30418311639207</t>
+          <t>-42.89235348803188,173.30418311639207</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr"/>
@@ -51617,7 +51700,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>-42.88886833139339,173.30819005813873</t>
+          <t>-42.88886833139338,173.30819005813873</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -53074,7 +53157,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>-42.889735753442494,173.30685116145918</t>
+          <t>-42.8897357534425,173.30685116145918</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -53394,7 +53477,7 @@
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>-42.8923409231693,173.30415963056868</t>
+          <t>-42.89234092316929,173.30415963056868</t>
         </is>
       </c>
       <c r="Q184" t="inlineStr">
@@ -59868,7 +59951,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>-42.88935398543313,173.30756566933266</t>
+          <t>-42.889353985433125,173.30756566933266</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -68719,7 +68802,7 @@
       </c>
       <c r="U344" t="inlineStr">
         <is>
-          <t>-42.89503297046306,173.3014418190399</t>
+          <t>-42.89503297046307,173.3014418190399</t>
         </is>
       </c>
       <c r="V344" t="inlineStr">
@@ -73472,7 +73555,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>-42.88647938811245,173.31251397259265</t>
+          <t>-42.88647938811244,173.31251397259265</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -74637,7 +74720,7 @@
       </c>
       <c r="V401" t="inlineStr">
         <is>
-          <t>-42.89581353588222,173.30169707886927</t>
+          <t>-42.89581353588221,173.30169707886927</t>
         </is>
       </c>
       <c r="W401" t="inlineStr">
@@ -75980,7 +76063,7 @@
       </c>
       <c r="T414" t="inlineStr">
         <is>
-          <t>-42.89448628646371,173.30203834843286</t>
+          <t>-42.89448628646372,173.30203834843286</t>
         </is>
       </c>
       <c r="U414" t="inlineStr">
@@ -76562,7 +76645,11 @@
           <t>2025-05-06 22:07:18+00:00</t>
         </is>
       </c>
-      <c r="B420" t="inlineStr"/>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>-42.88497649659678,173.31243009204428</t>
+        </is>
+      </c>
       <c r="C420" t="inlineStr">
         <is>
           <t>-42.88650268173406,173.3125310849249</t>
@@ -76666,6 +76753,115 @@
       <c r="W420" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>-42.88491239934673,173.31238300560133</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr"/>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>-42.88719709364976,173.31099221185804</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>-42.88763262697582,173.31029686664252</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>-42.88808759254104,173.3096368563895</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>-42.888462148045505,173.30889702416678</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>-42.88888555040833,173.3082079497557</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>-42.889358064148844,173.30756990736143</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>-42.88977337521885,173.3068999479498</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>-42.890266439847665,173.30636182149783</t>
+        </is>
+      </c>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>-42.890775926436596,173.30580418002666</t>
+        </is>
+      </c>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>-42.89129519443397,173.30525150682908</t>
+        </is>
+      </c>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>-42.8918103406414,173.30469113788962</t>
+        </is>
+      </c>
+      <c r="P421" t="inlineStr">
+        <is>
+          <t>-42.89232026021569,173.30412100810327</t>
+        </is>
+      </c>
+      <c r="Q421" t="inlineStr">
+        <is>
+          <t>-42.89285130317402,173.3035991761445</t>
+        </is>
+      </c>
+      <c r="R421" t="inlineStr">
+        <is>
+          <t>-42.89340031678907,173.30311903765096</t>
+        </is>
+      </c>
+      <c r="S421" t="inlineStr">
+        <is>
+          <t>-42.893955289642705,173.30261582117387</t>
+        </is>
+      </c>
+      <c r="T421" t="inlineStr">
+        <is>
+          <t>-42.89453013219753,173.30217075573103</t>
+        </is>
+      </c>
+      <c r="U421" t="inlineStr">
+        <is>
+          <t>-42.89513054641801,173.30177737469396</t>
+        </is>
+      </c>
+      <c r="V421" t="inlineStr">
+        <is>
+          <t>-42.895784391196614,173.30158135489006</t>
+        </is>
+      </c>
+      <c r="W421" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0410/nzd0410.xlsx
+++ b/data/nzd0410/nzd0410.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W421"/>
+  <dimension ref="A1:W422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28487,8 +28487,12 @@
       <c r="B421" t="n">
         <v>159.8133333333333</v>
       </c>
-      <c r="C421" t="inlineStr"/>
-      <c r="D421" t="inlineStr"/>
+      <c r="C421" t="n">
+        <v>125.9633333333333</v>
+      </c>
+      <c r="D421" t="n">
+        <v>139.0881818181818</v>
+      </c>
       <c r="E421" t="n">
         <v>330.0470588235294</v>
       </c>
@@ -28544,6 +28548,81 @@
         <v>336.835652173913</v>
       </c>
       <c r="W421" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>169.41</v>
+      </c>
+      <c r="C422" t="n">
+        <v>135.41</v>
+      </c>
+      <c r="D422" t="n">
+        <v>148.0354545454545</v>
+      </c>
+      <c r="E422" t="n">
+        <v>303.2805882352941</v>
+      </c>
+      <c r="F422" t="n">
+        <v>314.7305882352941</v>
+      </c>
+      <c r="G422" t="n">
+        <v>326.6757142857143</v>
+      </c>
+      <c r="H422" t="n">
+        <v>324.13</v>
+      </c>
+      <c r="I422" t="n">
+        <v>328.1054545454546</v>
+      </c>
+      <c r="J422" t="n">
+        <v>343.94</v>
+      </c>
+      <c r="K422" t="n">
+        <v>356.1789473684211</v>
+      </c>
+      <c r="L422" t="n">
+        <v>350.9108695652173</v>
+      </c>
+      <c r="M422" t="n">
+        <v>348.6033333333333</v>
+      </c>
+      <c r="N422" t="n">
+        <v>342.1508695652174</v>
+      </c>
+      <c r="O422" t="n">
+        <v>360.3255172413793</v>
+      </c>
+      <c r="P422" t="n">
+        <v>365.5784615384616</v>
+      </c>
+      <c r="Q422" t="n">
+        <v>371.1</v>
+      </c>
+      <c r="R422" t="n">
+        <v>367.2955172413793</v>
+      </c>
+      <c r="S422" t="n">
+        <v>368.1933333333333</v>
+      </c>
+      <c r="T422" t="n">
+        <v>362.04</v>
+      </c>
+      <c r="U422" t="n">
+        <v>364.2208695652174</v>
+      </c>
+      <c r="V422" t="n">
+        <v>357.8708695652174</v>
+      </c>
+      <c r="W422" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -28560,7 +28639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B426"/>
+  <dimension ref="A1:B427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32828,6 +32907,16 @@
       </c>
       <c r="B426" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
@@ -32995,28 +33084,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.7475499872313635</v>
+        <v>-0.8426352571591712</v>
       </c>
       <c r="J2" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K2" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01884943722326737</v>
+        <v>0.02295324980353963</v>
       </c>
       <c r="M2" t="n">
-        <v>21.67162971578988</v>
+        <v>22.53518669772673</v>
       </c>
       <c r="N2" t="n">
-        <v>1671.757959976017</v>
+        <v>1742.828263991574</v>
       </c>
       <c r="O2" t="n">
-        <v>40.88713685226708</v>
+        <v>41.74719468409314</v>
       </c>
       <c r="P2" t="n">
-        <v>339.2598388890552</v>
+        <v>340.1925352497431</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33073,28 +33162,28 @@
         <v>0.1644</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00796393582331313</v>
+        <v>-0.2374968537497871</v>
       </c>
       <c r="J3" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K3" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L3" t="n">
-        <v>4.899751818165932e-06</v>
+        <v>0.003255583831584086</v>
       </c>
       <c r="M3" t="n">
-        <v>13.46991919946394</v>
+        <v>15.0523496087213</v>
       </c>
       <c r="N3" t="n">
-        <v>732.9671372254502</v>
+        <v>984.4543702703643</v>
       </c>
       <c r="O3" t="n">
-        <v>27.07336582742253</v>
+        <v>31.37601584443704</v>
       </c>
       <c r="P3" t="n">
-        <v>329.7802393714825</v>
+        <v>332.1823820210788</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33151,28 +33240,28 @@
         <v>0.1505</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03848207873951123</v>
+        <v>-0.277163267067464</v>
       </c>
       <c r="J4" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K4" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003523202272363024</v>
+        <v>0.00909276344804355</v>
       </c>
       <c r="M4" t="n">
-        <v>11.60986866251764</v>
+        <v>12.94571752119889</v>
       </c>
       <c r="N4" t="n">
-        <v>230.3280581397601</v>
+        <v>462.1028508174479</v>
       </c>
       <c r="O4" t="n">
-        <v>15.17656279069013</v>
+        <v>21.49657765360449</v>
       </c>
       <c r="P4" t="n">
-        <v>336.5458843052855</v>
+        <v>338.9264670536752</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33229,28 +33318,28 @@
         <v>0.1087</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05832648559605393</v>
+        <v>-0.08019262160827217</v>
       </c>
       <c r="J5" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K5" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006904468530369856</v>
+        <v>0.001292630274705497</v>
       </c>
       <c r="M5" t="n">
-        <v>12.70210593669097</v>
+        <v>12.79826296907157</v>
       </c>
       <c r="N5" t="n">
-        <v>277.7631798942336</v>
+        <v>281.1944635865701</v>
       </c>
       <c r="O5" t="n">
-        <v>16.66622872440654</v>
+        <v>16.76885397355973</v>
       </c>
       <c r="P5" t="n">
-        <v>342.3327290477025</v>
+        <v>342.5482168405973</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33307,28 +33396,28 @@
         <v>0.1075</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1207151734011207</v>
+        <v>-0.1377859077300025</v>
       </c>
       <c r="J6" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K6" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003078601214777321</v>
+        <v>0.003990815441622719</v>
       </c>
       <c r="M6" t="n">
-        <v>12.49895259543219</v>
+        <v>12.56598667005302</v>
       </c>
       <c r="N6" t="n">
-        <v>268.6478012755197</v>
+        <v>270.5769675419759</v>
       </c>
       <c r="O6" t="n">
-        <v>16.39047898249223</v>
+        <v>16.44922391913904</v>
       </c>
       <c r="P6" t="n">
-        <v>348.1741450107785</v>
+        <v>348.3419018031375</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33385,28 +33474,28 @@
         <v>0.0833</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1603601099481657</v>
+        <v>-0.1708590800893245</v>
       </c>
       <c r="J7" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K7" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005775513929226817</v>
+        <v>0.006560815241580809</v>
       </c>
       <c r="M7" t="n">
-        <v>12.1224511903482</v>
+        <v>12.14874574571582</v>
       </c>
       <c r="N7" t="n">
-        <v>244.7679784545589</v>
+        <v>245.1317547497759</v>
       </c>
       <c r="O7" t="n">
-        <v>15.64506243051011</v>
+        <v>15.65668402790884</v>
       </c>
       <c r="P7" t="n">
-        <v>350.2249459047587</v>
+        <v>350.3303448717488</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33463,28 +33552,28 @@
         <v>0.1317</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0502319208704413</v>
+        <v>-0.06310717584122515</v>
       </c>
       <c r="J8" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K8" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006551257766034269</v>
+        <v>0.001031869638166705</v>
       </c>
       <c r="M8" t="n">
-        <v>11.29703203643645</v>
+        <v>11.33275532743372</v>
       </c>
       <c r="N8" t="n">
-        <v>213.8839774691177</v>
+        <v>214.8834235831793</v>
       </c>
       <c r="O8" t="n">
-        <v>14.62477273222109</v>
+        <v>14.65890253679242</v>
       </c>
       <c r="P8" t="n">
-        <v>349.4419381123382</v>
+        <v>349.5701662651224</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33541,28 +33630,28 @@
         <v>0.1392</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03878918335488091</v>
+        <v>0.02460374178068646</v>
       </c>
       <c r="J9" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K9" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004194432880751942</v>
+        <v>0.0001682335562385173</v>
       </c>
       <c r="M9" t="n">
-        <v>10.93159233926043</v>
+        <v>10.9733924888102</v>
       </c>
       <c r="N9" t="n">
-        <v>201.1651223919054</v>
+        <v>202.464140903743</v>
       </c>
       <c r="O9" t="n">
-        <v>14.18326910101848</v>
+        <v>14.22898945476252</v>
       </c>
       <c r="P9" t="n">
-        <v>352.6976403297448</v>
+        <v>352.8377469751874</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33619,28 +33708,28 @@
         <v>0.1267</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03184837342691629</v>
+        <v>0.02275380225895727</v>
       </c>
       <c r="J10" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K10" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002865274341784518</v>
+        <v>0.0001466093591168116</v>
       </c>
       <c r="M10" t="n">
-        <v>10.63323400451019</v>
+        <v>10.6528774568431</v>
       </c>
       <c r="N10" t="n">
-        <v>196.5422048597424</v>
+        <v>196.7290931265022</v>
       </c>
       <c r="O10" t="n">
-        <v>14.01935108554395</v>
+        <v>14.02601486975193</v>
       </c>
       <c r="P10" t="n">
-        <v>359.3682901177004</v>
+        <v>359.4580122487409</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33697,28 +33786,28 @@
         <v>0.1147</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002483622515347207</v>
+        <v>-0.004961963071208875</v>
       </c>
       <c r="J11" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K11" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L11" t="n">
-        <v>2.151026893604246e-06</v>
+        <v>8.610027215971705e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>9.980450077692044</v>
+        <v>9.993881440758196</v>
       </c>
       <c r="N11" t="n">
-        <v>159.5974231695335</v>
+        <v>159.6503998094936</v>
       </c>
       <c r="O11" t="n">
-        <v>12.63318737174168</v>
+        <v>12.63528392278914</v>
       </c>
       <c r="P11" t="n">
-        <v>369.5171856774441</v>
+        <v>369.5909050977971</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33775,28 +33864,28 @@
         <v>0.1465</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.04823115891670179</v>
+        <v>-0.05643845685079981</v>
       </c>
       <c r="J12" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K12" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0008740073568116458</v>
+        <v>0.001198214255285435</v>
       </c>
       <c r="M12" t="n">
-        <v>9.686650161212041</v>
+        <v>9.704416567404392</v>
       </c>
       <c r="N12" t="n">
-        <v>147.7349436105746</v>
+        <v>147.9551978118902</v>
       </c>
       <c r="O12" t="n">
-        <v>12.15462642826075</v>
+        <v>12.1636835626339</v>
       </c>
       <c r="P12" t="n">
-        <v>367.2400536216438</v>
+        <v>367.3217751518652</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33853,28 +33942,28 @@
         <v>0.1773</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1083882385187297</v>
+        <v>-0.1143662224279147</v>
       </c>
       <c r="J13" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K13" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004427766830807034</v>
+        <v>0.004944202600571268</v>
       </c>
       <c r="M13" t="n">
-        <v>9.472747153762958</v>
+        <v>9.47881478588169</v>
       </c>
       <c r="N13" t="n">
-        <v>144.8402733735712</v>
+        <v>144.776800749032</v>
       </c>
       <c r="O13" t="n">
-        <v>12.03496046414658</v>
+        <v>12.03232316508462</v>
       </c>
       <c r="P13" t="n">
-        <v>362.4965273980436</v>
+        <v>362.5564604531927</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33931,28 +34020,28 @@
         <v>0.145</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2171780395016647</v>
+        <v>-0.2248247011848097</v>
       </c>
       <c r="J14" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K14" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01684295379960199</v>
+        <v>0.01806874118341473</v>
       </c>
       <c r="M14" t="n">
-        <v>9.88247448529413</v>
+        <v>9.897019938931361</v>
       </c>
       <c r="N14" t="n">
-        <v>154.0282590117976</v>
+        <v>154.1479322193862</v>
       </c>
       <c r="O14" t="n">
-        <v>12.41081218179526</v>
+        <v>12.41563257427451</v>
       </c>
       <c r="P14" t="n">
-        <v>361.8439502368104</v>
+        <v>361.9194622530226</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34009,28 +34098,28 @@
         <v>0.1908</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1902637538099673</v>
+        <v>-0.1886267310317664</v>
       </c>
       <c r="J15" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K15" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01366985310873758</v>
+        <v>0.01351520739525225</v>
       </c>
       <c r="M15" t="n">
-        <v>9.866064848341081</v>
+        <v>9.845842694418334</v>
       </c>
       <c r="N15" t="n">
-        <v>147.8126520768123</v>
+        <v>147.4159412045021</v>
       </c>
       <c r="O15" t="n">
-        <v>12.15782267006771</v>
+        <v>12.14149666245896</v>
       </c>
       <c r="P15" t="n">
-        <v>362.2399648843843</v>
+        <v>362.2239164037084</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34087,28 +34176,28 @@
         <v>0.1737</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2310585928329241</v>
+        <v>-0.2274746642912701</v>
       </c>
       <c r="J16" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K16" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L16" t="n">
-        <v>0.018550783069331</v>
+        <v>0.01808179828777623</v>
       </c>
       <c r="M16" t="n">
-        <v>10.2872697331625</v>
+        <v>10.27485193436149</v>
       </c>
       <c r="N16" t="n">
-        <v>161.355182151655</v>
+        <v>161.0053749241748</v>
       </c>
       <c r="O16" t="n">
-        <v>12.70256596722312</v>
+        <v>12.68878934036557</v>
       </c>
       <c r="P16" t="n">
-        <v>365.0402166304682</v>
+        <v>365.0051368471009</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34165,28 +34254,28 @@
         <v>0.1799</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.2209836366779631</v>
+        <v>-0.2159475015950897</v>
       </c>
       <c r="J17" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K17" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01435073966786771</v>
+        <v>0.01377832818747471</v>
       </c>
       <c r="M17" t="n">
-        <v>11.06230513640353</v>
+        <v>11.05464400453599</v>
       </c>
       <c r="N17" t="n">
-        <v>192.9213462124653</v>
+        <v>192.5606499714248</v>
       </c>
       <c r="O17" t="n">
-        <v>13.88961288922284</v>
+        <v>13.87662242663627</v>
       </c>
       <c r="P17" t="n">
-        <v>367.9929637375776</v>
+        <v>367.9434106280073</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34243,28 +34332,28 @@
         <v>0.2</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1890659031710578</v>
+        <v>-0.1830855039487596</v>
       </c>
       <c r="J18" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K18" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L18" t="n">
-        <v>0.007069568815305183</v>
+        <v>0.006661290883621551</v>
       </c>
       <c r="M18" t="n">
-        <v>13.04558568163214</v>
+        <v>13.04136242385367</v>
       </c>
       <c r="N18" t="n">
-        <v>281.5098394894536</v>
+        <v>281.0510870724563</v>
       </c>
       <c r="O18" t="n">
-        <v>16.77825495960332</v>
+        <v>16.76457834460671</v>
       </c>
       <c r="P18" t="n">
-        <v>361.0579992495347</v>
+        <v>360.9979900661505</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34321,28 +34410,28 @@
         <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.09610914509381344</v>
+        <v>-0.08482795564314539</v>
       </c>
       <c r="J19" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K19" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00134552722371073</v>
+        <v>0.001050905618139808</v>
       </c>
       <c r="M19" t="n">
-        <v>15.13819329828065</v>
+        <v>15.15163790711638</v>
       </c>
       <c r="N19" t="n">
-        <v>376.2847822660829</v>
+        <v>376.4557347144257</v>
       </c>
       <c r="O19" t="n">
-        <v>19.39806130174051</v>
+        <v>19.4024672326595</v>
       </c>
       <c r="P19" t="n">
-        <v>349.7073730792159</v>
+        <v>349.592374583943</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34399,28 +34488,28 @@
         <v>0.1783</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0424619953726452</v>
+        <v>-0.03067788680346902</v>
       </c>
       <c r="J20" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K20" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002494824892401715</v>
+        <v>0.0001306168077870318</v>
       </c>
       <c r="M20" t="n">
-        <v>16.10140724937162</v>
+        <v>16.11166515794521</v>
       </c>
       <c r="N20" t="n">
-        <v>409.8289636171891</v>
+        <v>409.9038703075707</v>
       </c>
       <c r="O20" t="n">
-        <v>20.24423284832471</v>
+        <v>20.2460828386029</v>
       </c>
       <c r="P20" t="n">
-        <v>342.1889196433602</v>
+        <v>342.0729766494268</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34477,28 +34566,28 @@
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.09432864647521938</v>
+        <v>-0.08144018377560079</v>
       </c>
       <c r="J21" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K21" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001223261656078778</v>
+        <v>0.0009144173822378532</v>
       </c>
       <c r="M21" t="n">
-        <v>16.67196623088883</v>
+        <v>16.68452681340267</v>
       </c>
       <c r="N21" t="n">
-        <v>419.4770280623879</v>
+        <v>419.7410295958082</v>
       </c>
       <c r="O21" t="n">
-        <v>20.48113834879272</v>
+        <v>20.48758232676096</v>
       </c>
       <c r="P21" t="n">
-        <v>344.0603870003108</v>
+        <v>343.9355403735226</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34549,28 +34638,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.02099050896441018</v>
+        <v>0.02787705006863391</v>
       </c>
       <c r="J22" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K22" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001130961528168495</v>
+        <v>0.0002003082153316793</v>
       </c>
       <c r="M22" t="n">
-        <v>12.33596782117642</v>
+        <v>12.33361131012405</v>
       </c>
       <c r="N22" t="n">
-        <v>220.1409468428066</v>
+        <v>219.913786385407</v>
       </c>
       <c r="O22" t="n">
-        <v>14.83714753053317</v>
+        <v>14.8294904290541</v>
       </c>
       <c r="P22" t="n">
-        <v>345.261283195013</v>
+        <v>345.1936982562133</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34608,7 +34697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W421"/>
+  <dimension ref="A1:W422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76767,8 +76856,16 @@
           <t>-42.88491239934673,173.31238300560133</t>
         </is>
       </c>
-      <c r="C421" t="inlineStr"/>
-      <c r="D421" t="inlineStr"/>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>-42.884955313872375,173.31139436520283</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>-42.88537041065435,173.3106791310843</t>
+        </is>
+      </c>
       <c r="E421" t="inlineStr">
         <is>
           <t>-42.88719709364976,173.31099221185804</t>
@@ -76860,6 +76957,123 @@
         </is>
       </c>
       <c r="W421" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>-42.88498843394806,173.31243886134732</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>-42.88503016037429,173.31144934705733</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>-42.88544130063305,173.31073120617464</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>-42.886989529581406,173.3108255688573</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>-42.887443373168594,173.31011621598378</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>-42.887933512902784,173.30947675692917</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>-42.88831331173695,173.30874237384768</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>-42.888739770897324,173.3080564762753</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>-42.8892510872533,173.30745875223067</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>-42.889730007956,173.30684371093815</t>
+        </is>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>-42.89018944480483,173.3062279969428</t>
+        </is>
+      </c>
+      <c r="M422" t="inlineStr">
+        <is>
+          <t>-42.89070703541887,173.305675411255</t>
+        </is>
+      </c>
+      <c r="N422" t="inlineStr">
+        <is>
+          <t>-42.891203882218235,173.30508082938917</t>
+        </is>
+      </c>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>-42.891831202600805,173.3047301323894</t>
+        </is>
+      </c>
+      <c r="P422" t="inlineStr">
+        <is>
+          <t>-42.892390057745274,173.30425147139064</t>
+        </is>
+      </c>
+      <c r="Q422" t="inlineStr">
+        <is>
+          <t>-42.892938277120635,173.30378607659856</t>
+        </is>
+      </c>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>-42.893476951067534,173.30332883902065</t>
+        </is>
+      </c>
+      <c r="S422" t="inlineStr">
+        <is>
+          <t>-42.894073094623465,173.30297157741458</t>
+        </is>
+      </c>
+      <c r="T422" t="inlineStr">
+        <is>
+          <t>-42.89464963785042,173.30253164753069</t>
+        </is>
+      </c>
+      <c r="U422" t="inlineStr">
+        <is>
+          <t>-42.89525008904318,173.30218847798247</t>
+        </is>
+      </c>
+      <c r="V422" t="inlineStr">
+        <is>
+          <t>-42.89584577493658,173.30182509024067</t>
+        </is>
+      </c>
+      <c r="W422" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0410/nzd0410.xlsx
+++ b/data/nzd0410/nzd0410.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W422"/>
+  <dimension ref="A1:W424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28409,9 +28409,7 @@
           <t>2025-05-06 22:07:18+00:00</t>
         </is>
       </c>
-      <c r="B420" t="n">
-        <v>167.9033333333333</v>
-      </c>
+      <c r="B420" t="inlineStr"/>
       <c r="C420" t="n">
         <v>321.2633333333333</v>
       </c>
@@ -28484,15 +28482,9 @@
           <t>2025-05-30 22:07:06+00:00</t>
         </is>
       </c>
-      <c r="B421" t="n">
-        <v>159.8133333333333</v>
-      </c>
-      <c r="C421" t="n">
-        <v>125.9633333333333</v>
-      </c>
-      <c r="D421" t="n">
-        <v>139.0881818181818</v>
-      </c>
+      <c r="B421" t="inlineStr"/>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr"/>
       <c r="E421" t="n">
         <v>330.0470588235294</v>
       </c>
@@ -28559,15 +28551,9 @@
           <t>2025-07-17 22:07:28+00:00</t>
         </is>
       </c>
-      <c r="B422" t="n">
-        <v>169.41</v>
-      </c>
-      <c r="C422" t="n">
-        <v>135.41</v>
-      </c>
-      <c r="D422" t="n">
-        <v>148.0354545454545</v>
-      </c>
+      <c r="B422" t="inlineStr"/>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr"/>
       <c r="E422" t="n">
         <v>303.2805882352941</v>
       </c>
@@ -28625,6 +28611,154 @@
       <c r="W422" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:07:33+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>309.1866666666667</v>
+      </c>
+      <c r="C423" t="n">
+        <v>294.0366666666667</v>
+      </c>
+      <c r="D423" t="n">
+        <v>281.9090909090909</v>
+      </c>
+      <c r="E423" t="n">
+        <v>294.4347058823529</v>
+      </c>
+      <c r="F423" t="n">
+        <v>296.3447058823529</v>
+      </c>
+      <c r="G423" t="n">
+        <v>313.2214285714285</v>
+      </c>
+      <c r="H423" t="n">
+        <v>320</v>
+      </c>
+      <c r="I423" t="n">
+        <v>320.4290909090909</v>
+      </c>
+      <c r="J423" t="n">
+        <v>330.53</v>
+      </c>
+      <c r="K423" t="n">
+        <v>354.3784210526316</v>
+      </c>
+      <c r="L423" t="n">
+        <v>345.0326086956522</v>
+      </c>
+      <c r="M423" t="n">
+        <v>325.6803703703704</v>
+      </c>
+      <c r="N423" t="n">
+        <v>332.9326086956522</v>
+      </c>
+      <c r="O423" t="n">
+        <v>345.2468965517241</v>
+      </c>
+      <c r="P423" t="n">
+        <v>358.6315384615385</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>372.53</v>
+      </c>
+      <c r="R423" t="n">
+        <v>366.6368965517241</v>
+      </c>
+      <c r="S423" t="n">
+        <v>362.8003703703704</v>
+      </c>
+      <c r="T423" t="n">
+        <v>342.4266666666667</v>
+      </c>
+      <c r="U423" t="n">
+        <v>347.9526086956522</v>
+      </c>
+      <c r="V423" t="n">
+        <v>360.0026086956522</v>
+      </c>
+      <c r="W423" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>317.09</v>
+      </c>
+      <c r="C424" t="n">
+        <v>316.73</v>
+      </c>
+      <c r="D424" t="n">
+        <v>319.3209090909091</v>
+      </c>
+      <c r="E424" t="n">
+        <v>326.8717647058824</v>
+      </c>
+      <c r="F424" t="n">
+        <v>329.6017647058824</v>
+      </c>
+      <c r="G424" t="n">
+        <v>326.9242857142857</v>
+      </c>
+      <c r="H424" t="n">
+        <v>333.54</v>
+      </c>
+      <c r="I424" t="n">
+        <v>338.9009090909091</v>
+      </c>
+      <c r="J424" t="n">
+        <v>354.56</v>
+      </c>
+      <c r="K424" t="n">
+        <v>369.6931578947368</v>
+      </c>
+      <c r="L424" t="n">
+        <v>366.2534782608696</v>
+      </c>
+      <c r="M424" t="inlineStr"/>
+      <c r="N424" t="n">
+        <v>362.7034782608696</v>
+      </c>
+      <c r="O424" t="n">
+        <v>363.3375862068966</v>
+      </c>
+      <c r="P424" t="n">
+        <v>362.5230769230769</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>368.33</v>
+      </c>
+      <c r="R424" t="n">
+        <v>359.8875862068966</v>
+      </c>
+      <c r="S424" t="n">
+        <v>347.9288888888889</v>
+      </c>
+      <c r="T424" t="n">
+        <v>344.96</v>
+      </c>
+      <c r="U424" t="n">
+        <v>333.5534782608696</v>
+      </c>
+      <c r="V424" t="n">
+        <v>331.9034782608696</v>
+      </c>
+      <c r="W424" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -28639,7 +28773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B427"/>
+  <dimension ref="A1:B429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32917,6 +33051,26 @@
       </c>
       <c r="B427" t="n">
         <v>0.72</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -33084,28 +33238,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.8426352571591712</v>
+        <v>-0.5600171058483702</v>
       </c>
       <c r="J2" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K2" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02295324980353963</v>
+        <v>0.01187031160273333</v>
       </c>
       <c r="M2" t="n">
-        <v>22.53518669772673</v>
+        <v>19.85223269717069</v>
       </c>
       <c r="N2" t="n">
-        <v>1742.828263991574</v>
+        <v>1501.329396988805</v>
       </c>
       <c r="O2" t="n">
-        <v>41.74719468409314</v>
+        <v>38.74699210246913</v>
       </c>
       <c r="P2" t="n">
-        <v>340.1925352497431</v>
+        <v>337.4374699285952</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33162,28 +33316,28 @@
         <v>0.1644</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2374968537497871</v>
+        <v>-0.02269043578294637</v>
       </c>
       <c r="J3" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K3" t="n">
         <v>304</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003255583831584086</v>
+        <v>4.00594350110639e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>15.0523496087213</v>
+        <v>13.56681839849621</v>
       </c>
       <c r="N3" t="n">
-        <v>984.4543702703643</v>
+        <v>732.8946325498764</v>
       </c>
       <c r="O3" t="n">
-        <v>31.37601584443704</v>
+        <v>27.07202675364141</v>
       </c>
       <c r="P3" t="n">
-        <v>332.1823820210788</v>
+        <v>330.0821408726076</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33240,28 +33394,28 @@
         <v>0.1505</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.277163267067464</v>
+        <v>-0.08240607500837413</v>
       </c>
       <c r="J4" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K4" t="n">
         <v>310</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00909276344804355</v>
+        <v>0.001567688205229567</v>
       </c>
       <c r="M4" t="n">
-        <v>12.94571752119889</v>
+        <v>11.77997669271716</v>
       </c>
       <c r="N4" t="n">
-        <v>462.1028508174479</v>
+        <v>238.8153161077277</v>
       </c>
       <c r="O4" t="n">
-        <v>21.49657765360449</v>
+        <v>15.45365057543776</v>
       </c>
       <c r="P4" t="n">
-        <v>338.9264670536752</v>
+        <v>336.9865938942881</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33318,28 +33472,28 @@
         <v>0.1087</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.08019262160827217</v>
+        <v>-0.1144661118630767</v>
       </c>
       <c r="J5" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K5" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001292630274705497</v>
+        <v>0.002599008214142939</v>
       </c>
       <c r="M5" t="n">
-        <v>12.79826296907157</v>
+        <v>12.93287432025941</v>
       </c>
       <c r="N5" t="n">
-        <v>281.1944635865701</v>
+        <v>286.4044725143365</v>
       </c>
       <c r="O5" t="n">
-        <v>16.76885397355973</v>
+        <v>16.92348878081398</v>
       </c>
       <c r="P5" t="n">
-        <v>342.5482168405973</v>
+        <v>342.8869539399618</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33396,28 +33550,28 @@
         <v>0.1075</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1377859077300025</v>
+        <v>-0.1731398095908315</v>
       </c>
       <c r="J6" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K6" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003990815441622719</v>
+        <v>0.006189634324181181</v>
       </c>
       <c r="M6" t="n">
-        <v>12.56598667005302</v>
+        <v>12.71092069890368</v>
       </c>
       <c r="N6" t="n">
-        <v>270.5769675419759</v>
+        <v>276.5403962248209</v>
       </c>
       <c r="O6" t="n">
-        <v>16.44922391913904</v>
+        <v>16.62950378769075</v>
       </c>
       <c r="P6" t="n">
-        <v>348.3419018031375</v>
+        <v>348.6903664244281</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33474,28 +33628,28 @@
         <v>0.0833</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1708590800893245</v>
+        <v>-0.1985101014403248</v>
       </c>
       <c r="J7" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K7" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006560815241580809</v>
+        <v>0.008795634514302542</v>
       </c>
       <c r="M7" t="n">
-        <v>12.14874574571582</v>
+        <v>12.2384587521976</v>
       </c>
       <c r="N7" t="n">
-        <v>245.1317547497759</v>
+        <v>247.7090908375703</v>
       </c>
       <c r="O7" t="n">
-        <v>15.65668402790884</v>
+        <v>15.73877666267522</v>
       </c>
       <c r="P7" t="n">
-        <v>350.3303448717488</v>
+        <v>350.608853292269</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33552,28 +33706,28 @@
         <v>0.1317</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.06310717584122515</v>
+        <v>-0.08555531947113557</v>
       </c>
       <c r="J8" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K8" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001031869638166705</v>
+        <v>0.001892907716518955</v>
       </c>
       <c r="M8" t="n">
-        <v>11.33275532743372</v>
+        <v>11.38793070055376</v>
       </c>
       <c r="N8" t="n">
-        <v>214.8834235831793</v>
+        <v>216.3904968531508</v>
       </c>
       <c r="O8" t="n">
-        <v>14.65890253679242</v>
+        <v>14.7102174305192</v>
       </c>
       <c r="P8" t="n">
-        <v>349.5701662651224</v>
+        <v>349.7944500514113</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33630,28 +33784,28 @@
         <v>0.1392</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02460374178068646</v>
+        <v>-0.001479003292133494</v>
       </c>
       <c r="J9" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K9" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001682335562385173</v>
+        <v>6.042260800587229e-07</v>
       </c>
       <c r="M9" t="n">
-        <v>10.9733924888102</v>
+        <v>11.04919439318176</v>
       </c>
       <c r="N9" t="n">
-        <v>202.464140903743</v>
+        <v>204.9992309330759</v>
       </c>
       <c r="O9" t="n">
-        <v>14.22898945476252</v>
+        <v>14.3177942062692</v>
       </c>
       <c r="P9" t="n">
-        <v>352.8377469751874</v>
+        <v>353.0961634493149</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33708,28 +33862,28 @@
         <v>0.1267</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02275380225895727</v>
+        <v>0.00341677691152536</v>
       </c>
       <c r="J10" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K10" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001466093591168116</v>
+        <v>3.304098428302815e-06</v>
       </c>
       <c r="M10" t="n">
-        <v>10.6528774568431</v>
+        <v>10.69916778256196</v>
       </c>
       <c r="N10" t="n">
-        <v>196.7290931265022</v>
+        <v>198.1453556647607</v>
       </c>
       <c r="O10" t="n">
-        <v>14.02601486975193</v>
+        <v>14.07641132053055</v>
       </c>
       <c r="P10" t="n">
-        <v>359.4580122487409</v>
+        <v>359.6492671417907</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33786,28 +33940,28 @@
         <v>0.1147</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.004961963071208875</v>
+        <v>-0.01310003509962698</v>
       </c>
       <c r="J11" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K11" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L11" t="n">
-        <v>8.610027215971705e-06</v>
+        <v>6.048956074078404e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>9.993881440758196</v>
+        <v>9.984836875531164</v>
       </c>
       <c r="N11" t="n">
-        <v>159.6503998094936</v>
+        <v>159.3828126615249</v>
       </c>
       <c r="O11" t="n">
-        <v>12.63528392278914</v>
+        <v>12.62469059666513</v>
       </c>
       <c r="P11" t="n">
-        <v>369.5909050977971</v>
+        <v>369.6716447370109</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33864,28 +34018,28 @@
         <v>0.1465</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05643845685079981</v>
+        <v>-0.06740796307245979</v>
       </c>
       <c r="J12" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K12" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001198214255285435</v>
+        <v>0.001714321445790756</v>
       </c>
       <c r="M12" t="n">
-        <v>9.704416567404392</v>
+        <v>9.712829378628074</v>
       </c>
       <c r="N12" t="n">
-        <v>147.9551978118902</v>
+        <v>148.3338812066056</v>
       </c>
       <c r="O12" t="n">
-        <v>12.1636835626339</v>
+        <v>12.17923976308068</v>
       </c>
       <c r="P12" t="n">
-        <v>367.3217751518652</v>
+        <v>367.4312232841138</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33942,28 +34096,28 @@
         <v>0.1773</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1143662224279147</v>
+        <v>-0.1325660188279906</v>
       </c>
       <c r="J13" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K13" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004944202600571268</v>
+        <v>0.006528475197113859</v>
       </c>
       <c r="M13" t="n">
-        <v>9.47881478588169</v>
+        <v>9.552877025741232</v>
       </c>
       <c r="N13" t="n">
-        <v>144.776800749032</v>
+        <v>147.5268168606758</v>
       </c>
       <c r="O13" t="n">
-        <v>12.03232316508462</v>
+        <v>12.14606178399714</v>
       </c>
       <c r="P13" t="n">
-        <v>362.5564604531927</v>
+        <v>362.7393060936434</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34020,28 +34174,28 @@
         <v>0.145</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2248247011848097</v>
+        <v>-0.2336679733506532</v>
       </c>
       <c r="J14" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K14" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01806874118341473</v>
+        <v>0.01951322903197661</v>
       </c>
       <c r="M14" t="n">
-        <v>9.897019938931361</v>
+        <v>9.928193603429261</v>
       </c>
       <c r="N14" t="n">
-        <v>154.1479322193862</v>
+        <v>154.9055040950227</v>
       </c>
       <c r="O14" t="n">
-        <v>12.41563257427451</v>
+        <v>12.44610397252982</v>
       </c>
       <c r="P14" t="n">
-        <v>361.9194622530226</v>
+        <v>362.0068609711591</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34098,28 +34252,28 @@
         <v>0.1908</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1886267310317664</v>
+        <v>-0.1918703962725567</v>
       </c>
       <c r="J15" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K15" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01351520739525225</v>
+        <v>0.01409210015137308</v>
       </c>
       <c r="M15" t="n">
-        <v>9.845842694418334</v>
+        <v>9.842661430204817</v>
       </c>
       <c r="N15" t="n">
-        <v>147.4159412045021</v>
+        <v>147.0954043796741</v>
       </c>
       <c r="O15" t="n">
-        <v>12.14149666245896</v>
+        <v>12.1282894251281</v>
       </c>
       <c r="P15" t="n">
-        <v>362.2239164037084</v>
+        <v>362.255679335056</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34176,28 +34330,28 @@
         <v>0.1737</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2274746642912701</v>
+        <v>-0.2258638561827404</v>
       </c>
       <c r="J16" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K16" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01808179828777623</v>
+        <v>0.01803612539653132</v>
       </c>
       <c r="M16" t="n">
-        <v>10.27485193436149</v>
+        <v>10.22572865617483</v>
       </c>
       <c r="N16" t="n">
-        <v>161.0053749241748</v>
+        <v>160.1012547560437</v>
       </c>
       <c r="O16" t="n">
-        <v>12.68878934036557</v>
+        <v>12.65311245330744</v>
       </c>
       <c r="P16" t="n">
-        <v>365.0051368471009</v>
+        <v>364.9892745446336</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34254,28 +34408,28 @@
         <v>0.1799</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.2159475015950897</v>
+        <v>-0.2068223828595938</v>
       </c>
       <c r="J17" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K17" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01377832818747471</v>
+        <v>0.01277686927096344</v>
       </c>
       <c r="M17" t="n">
-        <v>11.05464400453599</v>
+        <v>11.03417289309121</v>
       </c>
       <c r="N17" t="n">
-        <v>192.5606499714248</v>
+        <v>191.7932672043114</v>
       </c>
       <c r="O17" t="n">
-        <v>13.87662242663627</v>
+        <v>13.84894462420553</v>
       </c>
       <c r="P17" t="n">
-        <v>367.9434106280073</v>
+        <v>367.853305547116</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34332,28 +34486,28 @@
         <v>0.2</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1830855039487596</v>
+        <v>-0.1756307224669089</v>
       </c>
       <c r="J18" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K18" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006661290883621551</v>
+        <v>0.006194672396584222</v>
       </c>
       <c r="M18" t="n">
-        <v>13.04136242385367</v>
+        <v>13.00792818782575</v>
       </c>
       <c r="N18" t="n">
-        <v>281.0510870724563</v>
+        <v>279.7790536005816</v>
       </c>
       <c r="O18" t="n">
-        <v>16.76457834460671</v>
+        <v>16.72659719131724</v>
       </c>
       <c r="P18" t="n">
-        <v>360.9979900661505</v>
+        <v>360.9229553963393</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34410,28 +34564,28 @@
         <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.08482795564314539</v>
+        <v>-0.07635661462455159</v>
       </c>
       <c r="J19" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K19" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001050905618139808</v>
+        <v>0.0008596955681833274</v>
       </c>
       <c r="M19" t="n">
-        <v>15.15163790711638</v>
+        <v>15.10865310027137</v>
       </c>
       <c r="N19" t="n">
-        <v>376.4557347144257</v>
+        <v>374.9858595645912</v>
       </c>
       <c r="O19" t="n">
-        <v>19.4024672326595</v>
+        <v>19.36455162312289</v>
       </c>
       <c r="P19" t="n">
-        <v>349.592374583943</v>
+        <v>349.5058224414487</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34488,28 +34642,28 @@
         <v>0.1783</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.03067788680346902</v>
+        <v>-0.02798478088635928</v>
       </c>
       <c r="J20" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K20" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001306168077870318</v>
+        <v>0.0001100030441054667</v>
       </c>
       <c r="M20" t="n">
-        <v>16.11166515794521</v>
+        <v>16.02955261864808</v>
       </c>
       <c r="N20" t="n">
-        <v>409.9038703075707</v>
+        <v>407.5147713775388</v>
       </c>
       <c r="O20" t="n">
-        <v>20.2460828386029</v>
+        <v>20.18699510520421</v>
       </c>
       <c r="P20" t="n">
-        <v>342.0729766494268</v>
+        <v>342.0463548876426</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34566,28 +34720,28 @@
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.08144018377560079</v>
+        <v>-0.08267088536423271</v>
       </c>
       <c r="J21" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K21" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0009144173822378532</v>
+        <v>0.0009532307112491978</v>
       </c>
       <c r="M21" t="n">
-        <v>16.68452681340267</v>
+        <v>16.62753503780459</v>
       </c>
       <c r="N21" t="n">
-        <v>419.7410295958082</v>
+        <v>417.5178585792895</v>
       </c>
       <c r="O21" t="n">
-        <v>20.48758232676096</v>
+        <v>20.43325374430831</v>
       </c>
       <c r="P21" t="n">
-        <v>343.9355403735226</v>
+        <v>343.9476401708064</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34638,28 +34792,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.02787705006863391</v>
+        <v>0.02786964496293801</v>
       </c>
       <c r="J22" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K22" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002003082153316793</v>
+        <v>0.000201607649333746</v>
       </c>
       <c r="M22" t="n">
-        <v>12.33361131012405</v>
+        <v>12.34383509286833</v>
       </c>
       <c r="N22" t="n">
-        <v>219.913786385407</v>
+        <v>219.7798788141924</v>
       </c>
       <c r="O22" t="n">
-        <v>14.8294904290541</v>
+        <v>14.82497483350958</v>
       </c>
       <c r="P22" t="n">
-        <v>345.1936982562133</v>
+        <v>345.1940251780816</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34697,7 +34851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W422"/>
+  <dimension ref="A1:W424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76734,11 +76888,7 @@
           <t>2025-05-06 22:07:18+00:00</t>
         </is>
       </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>-42.88497649659678,173.31243009204428</t>
-        </is>
-      </c>
+      <c r="B420" t="inlineStr"/>
       <c r="C420" t="inlineStr">
         <is>
           <t>-42.88650268173406,173.3125310849249</t>
@@ -76851,21 +77001,9 @@
           <t>2025-05-30 22:07:06+00:00</t>
         </is>
       </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>-42.88491239934673,173.31238300560133</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>-42.884955313872375,173.31139436520283</t>
-        </is>
-      </c>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>-42.88537041065435,173.3106791310843</t>
-        </is>
-      </c>
+      <c r="B421" t="inlineStr"/>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr">
         <is>
           <t>-42.88719709364976,173.31099221185804</t>
@@ -76968,21 +77106,9 @@
           <t>2025-07-17 22:07:28+00:00</t>
         </is>
       </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>-42.88498843394806,173.31243886134732</t>
-        </is>
-      </c>
-      <c r="C422" t="inlineStr">
-        <is>
-          <t>-42.88503016037429,173.31144934705733</t>
-        </is>
-      </c>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>-42.88544130063305,173.31073120617464</t>
-        </is>
-      </c>
+      <c r="B422" t="inlineStr"/>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
           <t>-42.886989529581406,173.3108255688573</t>
@@ -77076,6 +77202,236 @@
       <c r="W422" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:07:33+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>-42.88609588430299,173.3132524229647</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>-42.886286964735945,173.31237261202912</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>-42.88650198950086,173.31151039439257</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>-42.886920932983436,173.31077049630736</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>-42.887307855988645,173.30998686003142</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>-42.887837239845204,173.30937672305322</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>-42.88828375911741,173.3087116669258</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>-42.88868484169649,173.307999401848</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>-42.889155129956805,173.30735904752095</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>-42.889718273441446,173.30682849408728</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>-42.890156824646134,173.30617130025243</t>
+        </is>
+      </c>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>-42.89058558687724,173.30544840509282</t>
+        </is>
+      </c>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>-42.8911550425162,173.30498954041596</t>
+        </is>
+      </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>-42.89175131359196,173.30458080671622</t>
+        </is>
+      </c>
+      <c r="P423" t="inlineStr">
+        <is>
+          <t>-42.892353251651116,173.30418267455684</t>
+        </is>
+      </c>
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>-42.89294516374886,173.30380087549415</t>
+        </is>
+      </c>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>-42.89347431232378,173.30332161491586</t>
+        </is>
+      </c>
+      <c r="S423" t="inlineStr">
+        <is>
+          <t>-42.89405315192112,173.30291135262814</t>
+        </is>
+      </c>
+      <c r="T423" t="inlineStr">
+        <is>
+          <t>-42.89457710871807,173.30231261824187</t>
+        </is>
+      </c>
+      <c r="U423" t="inlineStr">
+        <is>
+          <t>-42.89519621088083,173.30200319186733</t>
+        </is>
+      </c>
+      <c r="V423" t="inlineStr">
+        <is>
+          <t>-42.895851995623836,173.30184979075787</t>
+        </is>
+      </c>
+      <c r="W423" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>-42.88615850222123,173.31329842470925</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>-42.88646676413043,173.31250469856766</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>-42.88679840458669,173.3117281481606</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>-42.88717247043289,173.3109724430168</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>-42.887552984327094,173.3102208442408</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>-42.88793529157172,173.30947860508397</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>-42.88838064588204,173.30881233815464</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>-42.8888170191021,173.3081367415848</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>-42.88932708021662,173.30753771322713</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>-42.88981808363702,173.30695792424126</t>
+        </is>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>-42.890274585215195,173.30637597894074</t>
+        </is>
+      </c>
+      <c r="M424" t="inlineStr"/>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>-42.89131277269702,173.3052843635857</t>
+        </is>
+      </c>
+      <c r="O424" t="inlineStr">
+        <is>
+          <t>-42.891847161013246,173.30475996137247</t>
+        </is>
+      </c>
+      <c r="P424" t="inlineStr">
+        <is>
+          <t>-42.892373869752866,173.304221213267</t>
+        </is>
+      </c>
+      <c r="Q424" t="inlineStr">
+        <is>
+          <t>-42.89292493728283,173.3037574102158</t>
+        </is>
+      </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>-42.893447271391004,173.3032475848971</t>
+        </is>
+      </c>
+      <c r="S424" t="inlineStr">
+        <is>
+          <t>-42.8939981583265,173.30274527866803</t>
+        </is>
+      </c>
+      <c r="T424" t="inlineStr">
+        <is>
+          <t>-42.8945864768826,173.30234090887583</t>
+        </is>
+      </c>
+      <c r="U424" t="inlineStr">
+        <is>
+          <t>-42.89514852276079,173.3018391943385</t>
+        </is>
+      </c>
+      <c r="V424" t="inlineStr">
+        <is>
+          <t>-42.89576999834003,173.3015242057933</t>
+        </is>
+      </c>
+      <c r="W424" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0410/nzd0410.xlsx
+++ b/data/nzd0410/nzd0410.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W424"/>
+  <dimension ref="A1:W425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28728,7 +28728,9 @@
       <c r="L424" t="n">
         <v>366.2534782608696</v>
       </c>
-      <c r="M424" t="inlineStr"/>
+      <c r="M424" t="n">
+        <v>368.0688888888889</v>
+      </c>
       <c r="N424" t="n">
         <v>362.7034782608696</v>
       </c>
@@ -28759,6 +28761,81 @@
       <c r="W424" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>329.86</v>
+      </c>
+      <c r="C425" t="n">
+        <v>319.62</v>
+      </c>
+      <c r="D425" t="n">
+        <v>308.3727272727273</v>
+      </c>
+      <c r="E425" t="n">
+        <v>313.9882352941176</v>
+      </c>
+      <c r="F425" t="n">
+        <v>320.6182352941176</v>
+      </c>
+      <c r="G425" t="n">
+        <v>316.71</v>
+      </c>
+      <c r="H425" t="n">
+        <v>325.85</v>
+      </c>
+      <c r="I425" t="n">
+        <v>328.5927272727272</v>
+      </c>
+      <c r="J425" t="n">
+        <v>335.77</v>
+      </c>
+      <c r="K425" t="n">
+        <v>363.6784210526316</v>
+      </c>
+      <c r="L425" t="n">
+        <v>362.1517391304348</v>
+      </c>
+      <c r="M425" t="n">
+        <v>343.5833333333333</v>
+      </c>
+      <c r="N425" t="n">
+        <v>343.5317391304348</v>
+      </c>
+      <c r="O425" t="n">
+        <v>350.8851724137931</v>
+      </c>
+      <c r="P425" t="n">
+        <v>348.5038461538461</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>347.58</v>
+      </c>
+      <c r="R425" t="n">
+        <v>343.6151724137931</v>
+      </c>
+      <c r="S425" t="n">
+        <v>334.9933333333333</v>
+      </c>
+      <c r="T425" t="n">
+        <v>325.51</v>
+      </c>
+      <c r="U425" t="n">
+        <v>321.0317391304348</v>
+      </c>
+      <c r="V425" t="n">
+        <v>322.2217391304348</v>
+      </c>
+      <c r="W425" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -28773,7 +28850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B429"/>
+  <dimension ref="A1:B430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33071,6 +33148,16 @@
       </c>
       <c r="B429" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -34851,7 +34938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W424"/>
+  <dimension ref="A1:W425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77383,7 +77470,11 @@
           <t>-42.890274585215195,173.30637597894074</t>
         </is>
       </c>
-      <c r="M424" t="inlineStr"/>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>-42.89081016585366,173.30586817940102</t>
+        </is>
+      </c>
       <c r="N424" t="inlineStr">
         <is>
           <t>-42.89131277269702,173.3052843635857</t>
@@ -77432,6 +77523,123 @@
       <c r="W424" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>-42.886259678580245,173.31337275332623</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>-42.88648966160349,173.31252151986686</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>-42.88671166182138,173.31166442455515</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>-42.887072563449955,173.31089223251522</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>-42.887486769331105,173.3101576393097</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>-42.88786220256425,173.30940266087902</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>-42.888325619362945,173.30875516221124</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>-42.88874325763859,173.3080600991936</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>-42.88919262558517,173.30739800741543</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>-42.889778884022036,173.30690709156383</t>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>-42.89025182354093,173.30633641694874</t>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>-42.89068043891009,173.3056256981058</t>
+        </is>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>-42.89121119826195,173.30509450423313</t>
+        </is>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>-42.89178118612654,173.30463664329946</t>
+        </is>
+      </c>
+      <c r="P425" t="inlineStr">
+        <is>
+          <t>-42.89229959317336,173.30408237804573</t>
+        </is>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>-42.892825008664396,173.3035426714593</t>
+        </is>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>-42.89338207619878,173.3030691006895</t>
+        </is>
+      </c>
+      <c r="S425" t="inlineStr">
+        <is>
+          <t>-42.89395032343997,173.302600823969</t>
+        </is>
+      </c>
+      <c r="T425" t="inlineStr">
+        <is>
+          <t>-42.89451455138651,173.3021237040299</t>
+        </is>
+      </c>
+      <c r="U425" t="inlineStr">
+        <is>
+          <t>-42.89510705213413,173.30169657938418</t>
+        </is>
+      </c>
+      <c r="V425" t="inlineStr">
+        <is>
+          <t>-42.895741745424345,173.30141202356353</t>
+        </is>
+      </c>
+      <c r="W425" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0410/nzd0410.xlsx
+++ b/data/nzd0410/nzd0410.xlsx
@@ -33325,28 +33325,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.5600171058483702</v>
+        <v>-0.5555224025607548</v>
       </c>
       <c r="J2" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K2" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01187031160273333</v>
+        <v>0.01176235762254108</v>
       </c>
       <c r="M2" t="n">
-        <v>19.85223269717069</v>
+        <v>19.79019896189692</v>
       </c>
       <c r="N2" t="n">
-        <v>1501.329396988805</v>
+        <v>1496.35424778163</v>
       </c>
       <c r="O2" t="n">
-        <v>38.74699210246913</v>
+        <v>38.68273836973837</v>
       </c>
       <c r="P2" t="n">
-        <v>337.4374699285952</v>
+        <v>337.3930010499782</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33403,28 +33403,28 @@
         <v>0.1644</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.02269043578294637</v>
+        <v>-0.02884213457848959</v>
       </c>
       <c r="J3" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K3" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>4.00594350110639e-05</v>
+        <v>6.513867298596487e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>13.56681839849621</v>
+        <v>13.56003662725915</v>
       </c>
       <c r="N3" t="n">
-        <v>732.8946325498764</v>
+        <v>730.8079651851583</v>
       </c>
       <c r="O3" t="n">
-        <v>27.07202675364141</v>
+        <v>27.03346010382612</v>
       </c>
       <c r="P3" t="n">
-        <v>330.0821408726076</v>
+        <v>330.1430647218057</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33481,28 +33481,28 @@
         <v>0.1505</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08240607500837413</v>
+        <v>-0.09905711977997091</v>
       </c>
       <c r="J4" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K4" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001567688205229567</v>
+        <v>0.002258110033579563</v>
       </c>
       <c r="M4" t="n">
-        <v>11.77997669271716</v>
+        <v>11.83424962587895</v>
       </c>
       <c r="N4" t="n">
-        <v>238.8153161077277</v>
+        <v>240.2773690282972</v>
       </c>
       <c r="O4" t="n">
-        <v>15.45365057543776</v>
+        <v>15.50088284673803</v>
       </c>
       <c r="P4" t="n">
-        <v>336.9865938942881</v>
+        <v>337.1545737463458</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33559,28 +33559,28 @@
         <v>0.1087</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1144661118630767</v>
+        <v>-0.1293850505962839</v>
       </c>
       <c r="J5" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K5" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002599008214142939</v>
+        <v>0.003315630634455835</v>
       </c>
       <c r="M5" t="n">
-        <v>12.93287432025941</v>
+        <v>12.98494834958677</v>
       </c>
       <c r="N5" t="n">
-        <v>286.4044725143365</v>
+        <v>287.5567482984698</v>
       </c>
       <c r="O5" t="n">
-        <v>16.92348878081398</v>
+        <v>16.95749829127132</v>
       </c>
       <c r="P5" t="n">
-        <v>342.8869539399618</v>
+        <v>343.0352519751877</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33637,28 +33637,28 @@
         <v>0.1075</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1731398095908315</v>
+        <v>-0.1862633047357483</v>
       </c>
       <c r="J6" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K6" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006189634324181181</v>
+        <v>0.007157397032460877</v>
       </c>
       <c r="M6" t="n">
-        <v>12.71092069890368</v>
+        <v>12.75506744603519</v>
       </c>
       <c r="N6" t="n">
-        <v>276.5403962248209</v>
+        <v>277.3549621203567</v>
       </c>
       <c r="O6" t="n">
-        <v>16.62950378769075</v>
+        <v>16.65397736639379</v>
       </c>
       <c r="P6" t="n">
-        <v>348.6903664244281</v>
+        <v>348.8204717189299</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33715,28 +33715,28 @@
         <v>0.0833</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1985101014403248</v>
+        <v>-0.2139135856848782</v>
       </c>
       <c r="J7" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K7" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008795634514302542</v>
+        <v>0.01016381418191992</v>
       </c>
       <c r="M7" t="n">
-        <v>12.2384587521976</v>
+        <v>12.2916580256853</v>
       </c>
       <c r="N7" t="n">
-        <v>247.7090908375703</v>
+        <v>249.3119334769551</v>
       </c>
       <c r="O7" t="n">
-        <v>15.73877666267522</v>
+        <v>15.78961473491216</v>
       </c>
       <c r="P7" t="n">
-        <v>350.608853292269</v>
+        <v>350.7648132815492</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33793,28 +33793,28 @@
         <v>0.1317</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.08555531947113557</v>
+        <v>-0.09709140494365824</v>
       </c>
       <c r="J8" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K8" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001892907716518955</v>
+        <v>0.002435923116838046</v>
       </c>
       <c r="M8" t="n">
-        <v>11.38793070055376</v>
+        <v>11.41697100576412</v>
       </c>
       <c r="N8" t="n">
-        <v>216.3904968531508</v>
+        <v>217.0863493597221</v>
       </c>
       <c r="O8" t="n">
-        <v>14.7102174305192</v>
+        <v>14.73385045939187</v>
       </c>
       <c r="P8" t="n">
-        <v>349.7944500514113</v>
+        <v>349.9103187771416</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33871,28 +33871,28 @@
         <v>0.1392</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.001479003292133494</v>
+        <v>-0.01489767037474097</v>
       </c>
       <c r="J9" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K9" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L9" t="n">
-        <v>6.042260800587229e-07</v>
+        <v>6.115929471273152e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>11.04919439318176</v>
+        <v>11.08954171058624</v>
       </c>
       <c r="N9" t="n">
-        <v>204.9992309330759</v>
+        <v>206.1149029632265</v>
       </c>
       <c r="O9" t="n">
-        <v>14.3177942062692</v>
+        <v>14.35670237078231</v>
       </c>
       <c r="P9" t="n">
-        <v>353.0961634493149</v>
+        <v>353.2298325164639</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33949,28 +33949,28 @@
         <v>0.1267</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00341677691152536</v>
+        <v>-0.009851035029473793</v>
       </c>
       <c r="J10" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K10" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L10" t="n">
-        <v>3.304098428302815e-06</v>
+        <v>2.740837487502645e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>10.69916778256196</v>
+        <v>10.74226613228904</v>
       </c>
       <c r="N10" t="n">
-        <v>198.1453556647607</v>
+        <v>199.1999387857999</v>
       </c>
       <c r="O10" t="n">
-        <v>14.07641132053055</v>
+        <v>14.11382084291139</v>
       </c>
       <c r="P10" t="n">
-        <v>359.6492671417907</v>
+        <v>359.7812476876529</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34027,28 +34027,28 @@
         <v>0.1147</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.01310003509962698</v>
+        <v>-0.01620728697670458</v>
       </c>
       <c r="J11" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L11" t="n">
-        <v>6.048956074078404e-05</v>
+        <v>9.309094009357644e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>9.984836875531164</v>
+        <v>9.974215703959226</v>
       </c>
       <c r="N11" t="n">
-        <v>159.3828126615249</v>
+        <v>159.0189409577285</v>
       </c>
       <c r="O11" t="n">
-        <v>12.62469059666513</v>
+        <v>12.61027124838037</v>
       </c>
       <c r="P11" t="n">
-        <v>369.6716447370109</v>
+        <v>369.7026692327589</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34105,28 +34105,28 @@
         <v>0.1465</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.06740796307245979</v>
+        <v>-0.06930718748431157</v>
       </c>
       <c r="J12" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K12" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001714321445790756</v>
+        <v>0.001822290282367023</v>
       </c>
       <c r="M12" t="n">
-        <v>9.712829378628074</v>
+        <v>9.695926715753544</v>
       </c>
       <c r="N12" t="n">
-        <v>148.3338812066056</v>
+        <v>147.9517961531765</v>
       </c>
       <c r="O12" t="n">
-        <v>12.17923976308068</v>
+        <v>12.1635437333524</v>
       </c>
       <c r="P12" t="n">
-        <v>367.4312232841138</v>
+        <v>367.4502949790107</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34183,28 +34183,28 @@
         <v>0.1773</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1325660188279906</v>
+        <v>-0.1362957292300837</v>
       </c>
       <c r="J13" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K13" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006528475197113859</v>
+        <v>0.006936559917758878</v>
       </c>
       <c r="M13" t="n">
-        <v>9.552877025741232</v>
+        <v>9.569552079276354</v>
       </c>
       <c r="N13" t="n">
-        <v>147.5268168606758</v>
+        <v>147.604033032271</v>
       </c>
       <c r="O13" t="n">
-        <v>12.14606178399714</v>
+        <v>12.14924001871191</v>
       </c>
       <c r="P13" t="n">
-        <v>362.7393060936434</v>
+        <v>362.7771572589711</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34261,28 +34261,28 @@
         <v>0.145</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2336679733506532</v>
+        <v>-0.2403325152090654</v>
       </c>
       <c r="J14" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K14" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01951322903197661</v>
+        <v>0.02068217818547313</v>
       </c>
       <c r="M14" t="n">
-        <v>9.928193603429261</v>
+        <v>9.937260670482553</v>
       </c>
       <c r="N14" t="n">
-        <v>154.9055040950227</v>
+        <v>154.8978697675559</v>
       </c>
       <c r="O14" t="n">
-        <v>12.44610397252982</v>
+        <v>12.44579727327888</v>
       </c>
       <c r="P14" t="n">
-        <v>362.0068609711591</v>
+        <v>362.0732334487186</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34339,28 +34339,28 @@
         <v>0.1908</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1918703962725567</v>
+        <v>-0.1953051644325249</v>
       </c>
       <c r="J15" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K15" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01409210015137308</v>
+        <v>0.01466767414788617</v>
       </c>
       <c r="M15" t="n">
-        <v>9.842661430204817</v>
+        <v>9.834202331140443</v>
       </c>
       <c r="N15" t="n">
-        <v>147.0954043796741</v>
+        <v>146.7927851883347</v>
       </c>
       <c r="O15" t="n">
-        <v>12.1282894251281</v>
+        <v>12.11580724460135</v>
       </c>
       <c r="P15" t="n">
-        <v>362.255679335056</v>
+        <v>362.2896421666444</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34417,28 +34417,28 @@
         <v>0.1737</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2258638561827404</v>
+        <v>-0.2316368601011624</v>
       </c>
       <c r="J16" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K16" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01803612539653132</v>
+        <v>0.01902491264832373</v>
       </c>
       <c r="M16" t="n">
-        <v>10.22572865617483</v>
+        <v>10.22869341170522</v>
       </c>
       <c r="N16" t="n">
-        <v>160.1012547560437</v>
+        <v>159.9598035455551</v>
       </c>
       <c r="O16" t="n">
-        <v>12.65311245330744</v>
+        <v>12.64752163649286</v>
       </c>
       <c r="P16" t="n">
-        <v>364.9892745446336</v>
+        <v>365.0462797563277</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34495,28 +34495,28 @@
         <v>0.1799</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.2068223828595938</v>
+        <v>-0.2152271707646349</v>
       </c>
       <c r="J17" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K17" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01277686927096344</v>
+        <v>0.01385600508755425</v>
       </c>
       <c r="M17" t="n">
-        <v>11.03417289309121</v>
+        <v>11.04753017430149</v>
       </c>
       <c r="N17" t="n">
-        <v>191.7932672043114</v>
+        <v>191.8791244821945</v>
       </c>
       <c r="O17" t="n">
-        <v>13.84894462420553</v>
+        <v>13.85204405429735</v>
       </c>
       <c r="P17" t="n">
-        <v>367.853305547116</v>
+        <v>367.9367603031977</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34573,28 +34573,28 @@
         <v>0.2</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1756307224669089</v>
+        <v>-0.1824136143763291</v>
       </c>
       <c r="J18" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K18" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006194672396584222</v>
+        <v>0.006705697149924417</v>
       </c>
       <c r="M18" t="n">
-        <v>13.00792818782575</v>
+        <v>13.00572942064291</v>
       </c>
       <c r="N18" t="n">
-        <v>279.7790536005816</v>
+        <v>279.4380765444246</v>
       </c>
       <c r="O18" t="n">
-        <v>16.72659719131724</v>
+        <v>16.71640142328559</v>
       </c>
       <c r="P18" t="n">
-        <v>360.9229553963393</v>
+        <v>360.9916240714278</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34651,28 +34651,28 @@
         <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.07635661462455159</v>
+        <v>-0.08303641968205147</v>
       </c>
       <c r="J19" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K19" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0008596955681833274</v>
+        <v>0.001021035540129334</v>
       </c>
       <c r="M19" t="n">
-        <v>15.10865310027137</v>
+        <v>15.10272307119407</v>
       </c>
       <c r="N19" t="n">
-        <v>374.9858595645912</v>
+        <v>374.3641760970826</v>
       </c>
       <c r="O19" t="n">
-        <v>19.36455162312289</v>
+        <v>19.34849286371118</v>
       </c>
       <c r="P19" t="n">
-        <v>349.5058224414487</v>
+        <v>349.5745108044189</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34729,28 +34729,28 @@
         <v>0.1783</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.02798478088635928</v>
+        <v>-0.03678117772842218</v>
       </c>
       <c r="J20" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K20" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001100030441054667</v>
+        <v>0.0001908185022491127</v>
       </c>
       <c r="M20" t="n">
-        <v>16.02955261864808</v>
+        <v>16.03181424221708</v>
       </c>
       <c r="N20" t="n">
-        <v>407.5147713775388</v>
+        <v>407.0417630085312</v>
       </c>
       <c r="O20" t="n">
-        <v>20.18699510520421</v>
+        <v>20.1752760330195</v>
       </c>
       <c r="P20" t="n">
-        <v>342.0463548876426</v>
+        <v>342.1336602417972</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34807,28 +34807,28 @@
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.08267088536423271</v>
+        <v>-0.09437518262733452</v>
       </c>
       <c r="J21" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K21" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0009532307112491978</v>
+        <v>0.001245731391559368</v>
       </c>
       <c r="M21" t="n">
-        <v>16.62753503780459</v>
+        <v>16.64433427104057</v>
       </c>
       <c r="N21" t="n">
-        <v>417.5178585792895</v>
+        <v>417.5469474403986</v>
       </c>
       <c r="O21" t="n">
-        <v>20.43325374430831</v>
+        <v>20.43396553389475</v>
       </c>
       <c r="P21" t="n">
-        <v>343.9476401708064</v>
+        <v>344.0620223537438</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34879,28 +34879,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.02786964496293801</v>
+        <v>0.01449747009413828</v>
       </c>
       <c r="J22" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K22" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L22" t="n">
-        <v>0.000201607649333746</v>
+        <v>5.448986613099116e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>12.34383509286833</v>
+        <v>12.37999961996178</v>
       </c>
       <c r="N22" t="n">
-        <v>219.7798788141924</v>
+        <v>220.7789981105513</v>
       </c>
       <c r="O22" t="n">
-        <v>14.82497483350958</v>
+        <v>14.85863379017571</v>
       </c>
       <c r="P22" t="n">
-        <v>345.1940251780816</v>
+        <v>345.3263913277522</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">

--- a/data/nzd0410/nzd0410.xlsx
+++ b/data/nzd0410/nzd0410.xlsx
@@ -33321,9 +33321,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.168</v>
+      </c>
       <c r="I2" t="n">
         <v>-0.5554985331721081</v>
       </c>
@@ -33394,13 +33400,13 @@
         <v>0.05004239143235906</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12</v>
+        <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0917</v>
+        <v>0.038</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1644</v>
+        <v>0.1979</v>
       </c>
       <c r="I3" t="n">
         <v>-0.02881787393852411</v>
@@ -33472,13 +33478,13 @@
         <v>0.1000847828632956</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0854</v>
+        <v>0.0344</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1505</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>-0.09905165968800347</v>
@@ -33550,13 +33556,13 @@
         <v>0.1501271742942321</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07290000000000001</v>
+        <v>0.0564</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1087</v>
+        <v>0.1144</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1294131898935137</v>
@@ -33628,13 +33634,13 @@
         <v>0.2000154339417502</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0737</v>
+        <v>0.1008</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1075</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>-0.1862871514357721</v>
@@ -33706,13 +33712,13 @@
         <v>0.2500578253732414</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0833</v>
+        <v>0.1577</v>
       </c>
       <c r="I7" t="n">
         <v>-0.2138973423565943</v>
@@ -33784,13 +33790,13 @@
         <v>0.3001002168047326</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1</v>
+        <v>0.185</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0806</v>
+        <v>0.113</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1317</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>-0.09709140494365837</v>
@@ -33862,13 +33868,13 @@
         <v>0.3501426082362239</v>
       </c>
       <c r="F9" t="n">
-        <v>0.11</v>
+        <v>0.075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0898</v>
+        <v>0.057</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1392</v>
+        <v>0.1026</v>
       </c>
       <c r="I9" t="n">
         <v>-0.01489582620214642</v>
@@ -33940,13 +33946,13 @@
         <v>0.400184999667997</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08260000000000001</v>
+        <v>0.1109</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1267</v>
+        <v>0.2</v>
       </c>
       <c r="I10" t="n">
         <v>-0.009851035029473831</v>
@@ -34018,13 +34024,13 @@
         <v>0.4502273910997701</v>
       </c>
       <c r="F11" t="n">
-        <v>0.095</v>
+        <v>0.12</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0823</v>
+        <v>0.0982</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1147</v>
+        <v>0.1601</v>
       </c>
       <c r="I11" t="n">
         <v>-0.01619319288873976</v>
@@ -34096,13 +34102,13 @@
         <v>0.4998845848129573</v>
       </c>
       <c r="F12" t="n">
-        <v>0.115</v>
+        <v>0.145</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0951</v>
+        <v>0.1209</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1465</v>
+        <v>0.186</v>
       </c>
       <c r="I12" t="n">
         <v>-0.06928927669902782</v>
@@ -34174,13 +34180,13 @@
         <v>0.5499269762441098</v>
       </c>
       <c r="F13" t="n">
-        <v>0.135</v>
+        <v>0.185</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1082</v>
+        <v>0.147</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1773</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
         <v>-0.1363449255992377</v>
@@ -34252,13 +34258,13 @@
         <v>0.5999693676759877</v>
       </c>
       <c r="F14" t="n">
-        <v>0.115</v>
+        <v>0.13</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0977</v>
+        <v>0.1081</v>
       </c>
       <c r="H14" t="n">
-        <v>0.145</v>
+        <v>0.166</v>
       </c>
       <c r="I14" t="n">
         <v>-0.2403091453180867</v>
@@ -34330,13 +34336,13 @@
         <v>0.6500117591071403</v>
       </c>
       <c r="F15" t="n">
-        <v>0.145</v>
+        <v>0.195</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1174</v>
+        <v>0.1318</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1908</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
         <v>-0.1952907320790429</v>
@@ -34408,13 +34414,13 @@
         <v>0.7000541505382927</v>
       </c>
       <c r="F16" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1025</v>
+        <v>0.1323</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1737</v>
+        <v>0.2</v>
       </c>
       <c r="I16" t="n">
         <v>-0.2316639084520295</v>
@@ -34486,13 +34492,13 @@
         <v>0.7500965419694452</v>
       </c>
       <c r="F17" t="n">
-        <v>0.125</v>
+        <v>0.155</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0968</v>
+        <v>0.1196</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1799</v>
+        <v>0.2</v>
       </c>
       <c r="I17" t="n">
         <v>-0.2152271707646348</v>
@@ -34564,10 +34570,10 @@
         <v>0.7998917953367163</v>
       </c>
       <c r="F18" t="n">
-        <v>0.145</v>
+        <v>0.18</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1026</v>
+        <v>0.1294</v>
       </c>
       <c r="H18" t="n">
         <v>0.2</v>
@@ -34642,10 +34648,10 @@
         <v>0.8499341867675012</v>
       </c>
       <c r="F19" t="n">
-        <v>0.135</v>
+        <v>0.165</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0948</v>
+        <v>0.1238</v>
       </c>
       <c r="H19" t="n">
         <v>0.2</v>
@@ -34720,13 +34726,13 @@
         <v>0.8999765781990565</v>
       </c>
       <c r="F20" t="n">
-        <v>0.12</v>
+        <v>0.185</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09229999999999999</v>
+        <v>0.134</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1783</v>
+        <v>0.2</v>
       </c>
       <c r="I20" t="n">
         <v>-0.03676038298669802</v>
@@ -34798,10 +34804,10 @@
         <v>0.9500189696306118</v>
       </c>
       <c r="F21" t="n">
-        <v>0.115</v>
+        <v>0.155</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0786</v>
+        <v>0.1045</v>
       </c>
       <c r="H21" t="n">
         <v>0.2</v>
@@ -34875,9 +34881,15 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.09470000000000001</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I22" t="n">
         <v>0.01452317330556868</v>
       </c>
